--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="477">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1434,9 +1434,6 @@
     <t>06/2,5/2023</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-15)</t>
   </si>
   <si>
@@ -1462,6 +1459,12 @@
   </si>
   <si>
     <t>RA No. 9710</t>
+  </si>
+  <si>
+    <t>SL(28-0-0)</t>
+  </si>
+  <si>
+    <t>8/22 - 9/30/2023</t>
   </si>
 </sst>
 </file>
@@ -4262,9 +4265,9 @@
   <dimension ref="A2:K618"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A560" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A545" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K580" sqref="K580"/>
+      <selection pane="bottomLeft" activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4425,7 +4428,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.25700000000006</v>
+        <v>111.50700000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4435,7 +4438,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.875</v>
+        <v>22.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16549,7 +16552,7 @@
         <v>44652</v>
       </c>
       <c r="B539" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C539" s="13">
         <v>1.25</v>
@@ -16573,7 +16576,7 @@
         <v>44682</v>
       </c>
       <c r="B540" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C540" s="13">
         <v>1.25</v>
@@ -16597,7 +16600,7 @@
         <v>44713</v>
       </c>
       <c r="B541" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C541" s="13">
         <v>1.25</v>
@@ -16665,7 +16668,7 @@
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C544" s="13"/>
       <c r="D544" s="39">
@@ -16711,7 +16714,7 @@
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C546" s="13"/>
       <c r="D546" s="39">
@@ -16733,7 +16736,7 @@
         <v>44805</v>
       </c>
       <c r="B547" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C547" s="13">
         <v>1.25</v>
@@ -16843,19 +16846,19 @@
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
-        <v>466</v>
+        <v>50</v>
       </c>
       <c r="C552" s="13"/>
-      <c r="D552" s="39">
-        <v>1</v>
-      </c>
+      <c r="D552" s="39"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
       <c r="G552" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H552" s="39"/>
+      <c r="H552" s="39">
+        <v>1</v>
+      </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
       <c r="K552" s="49">
@@ -16865,7 +16868,7 @@
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C553" s="13"/>
       <c r="D553" s="39">
@@ -17415,7 +17418,7 @@
         <v>45108</v>
       </c>
       <c r="B577" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C577" s="13">
         <v>1.25</v>
@@ -17431,26 +17434,34 @@
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
       <c r="K577" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45139</v>
       </c>
-      <c r="B578" s="20"/>
-      <c r="C578" s="13"/>
+      <c r="B578" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C578" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D578" s="39"/>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H578" s="39"/>
+      <c r="G578" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H578" s="39">
+        <v>28</v>
+      </c>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20"/>
+      <c r="K578" s="20" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">

--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276766D-F53E-43C9-835F-8D27C840B437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="481">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1474,12 +1475,15 @@
   </si>
   <si>
     <t>12/04,05/2023</t>
+  </si>
+  <si>
+    <t>12/20-22,27-29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2357,7 +2361,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2404,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2468,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2528,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2594,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2657,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2755,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2814,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,7 +2879,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2922,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2997,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3179,7 +3183,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3249,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3307,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3373,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3425,7 +3429,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3504,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3543,7 +3547,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3609,7 +3613,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3665,7 +3669,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3767,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3826,7 +3830,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3875,7 +3879,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3892,26 +3896,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K625" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K625"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K626" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K626" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3923,13 +3927,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3938,14 +3942,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4249,7 +4253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4259,7 +4263,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4267,34 +4271,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K625"/>
+  <dimension ref="A2:K626"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A569" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A581" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K588" sqref="K588"/>
+      <selection pane="bottomLeft" activeCell="B590" sqref="B590"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4315,7 +4319,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4333,7 +4337,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4355,7 +4359,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4363,7 +4367,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4376,7 +4380,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4393,7 +4397,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4437,7 +4441,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>110.25700000000006</v>
+        <v>111.50700000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4447,12 +4451,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>19.875</v>
+        <v>15.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>113</v>
       </c>
@@ -4470,7 +4474,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -4490,7 +4494,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>115</v>
       </c>
@@ -4510,7 +4514,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>116</v>
       </c>
@@ -4534,7 +4538,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>117</v>
       </c>
@@ -4552,7 +4556,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>35796</v>
       </c>
@@ -4576,7 +4580,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f>EDATE(A15,1)</f>
         <v>35827</v>
@@ -4601,7 +4605,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" ref="A17:A27" si="0">EDATE(A16,1)</f>
         <v>35855</v>
@@ -4626,7 +4630,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4651,7 +4655,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4672,7 +4676,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>35947</v>
@@ -4697,7 +4701,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>85</v>
@@ -4717,7 +4721,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f>EDATE(A20,1)</f>
         <v>35977</v>
@@ -4742,7 +4746,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4767,7 +4771,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4794,7 +4798,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>132</v>
@@ -4814,7 +4818,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36069</v>
@@ -4841,7 +4845,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -4862,7 +4866,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f>EDATE(A27,1)</f>
         <v>36130</v>
@@ -4889,7 +4893,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>118</v>
       </c>
@@ -4911,7 +4915,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f>EDATE(A28,1)</f>
         <v>36161</v>
@@ -4932,7 +4936,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" ref="A31:A110" si="1">EDATE(A30,1)</f>
         <v>36192</v>
@@ -4953,7 +4957,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -4974,7 +4978,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -4995,7 +4999,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -5022,7 +5026,7 @@
         <v>36285</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>92</v>
@@ -5044,7 +5048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>136</v>
@@ -5066,7 +5070,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A34,1)</f>
         <v>36312</v>
@@ -5087,7 +5091,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -5108,7 +5112,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -5129,7 +5133,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -5150,7 +5154,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -5181,7 +5185,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -5208,7 +5212,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -5235,7 +5239,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>57</v>
@@ -5257,7 +5261,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>119</v>
       </c>
@@ -5279,7 +5283,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f>EDATE(A43,1)</f>
         <v>36526</v>
@@ -5300,7 +5304,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" si="1"/>
         <v>36557</v>
@@ -5321,7 +5325,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="1"/>
         <v>36586</v>
@@ -5344,7 +5348,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -5367,7 +5371,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -5388,7 +5392,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -5409,7 +5413,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -5430,7 +5434,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -5451,7 +5455,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -5472,7 +5476,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -5499,7 +5503,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A55,1)</f>
         <v>36831</v>
@@ -5526,7 +5530,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -5549,7 +5553,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>120</v>
       </c>
@@ -5571,7 +5575,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>36892</v>
@@ -5592,7 +5596,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" si="1"/>
         <v>36923</v>
@@ -5613,7 +5617,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5640,7 +5644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5658,7 +5662,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5676,7 +5680,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f>EDATE(A61,1)</f>
         <v>36982</v>
@@ -5697,7 +5701,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5718,7 +5722,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5739,7 +5743,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5760,7 +5764,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -5781,7 +5785,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -5802,7 +5806,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -5829,7 +5833,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>92</v>
@@ -5851,7 +5855,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37196</v>
@@ -5878,7 +5882,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="1"/>
         <v>37226</v>
@@ -5899,7 +5903,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>121</v>
       </c>
@@ -5921,7 +5925,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f>EDATE(A73,1)</f>
         <v>37257</v>
@@ -5942,7 +5946,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -5963,7 +5967,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -5990,7 +5994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -6013,7 +6017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6040,7 +6044,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -6067,7 +6071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>92</v>
@@ -6089,7 +6093,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>37438</v>
@@ -6116,7 +6120,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>137</v>
@@ -6138,7 +6142,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>92</v>
@@ -6160,7 +6164,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f>EDATE(A82,1)</f>
         <v>37469</v>
@@ -6181,7 +6185,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -6202,7 +6206,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -6229,7 +6233,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>156</v>
@@ -6251,7 +6255,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>37561</v>
@@ -6278,7 +6282,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -6301,7 +6305,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>122</v>
       </c>
@@ -6323,7 +6327,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>37622</v>
@@ -6344,7 +6348,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -6365,7 +6369,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -6386,7 +6390,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>37712</v>
@@ -6407,7 +6411,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -6430,7 +6434,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -6451,7 +6455,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -6478,7 +6482,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>167</v>
@@ -6498,7 +6502,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>37834</v>
@@ -6523,7 +6527,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6544,7 +6548,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6571,7 +6575,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6589,7 +6593,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>37926</v>
@@ -6612,7 +6616,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6639,7 +6643,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>168</v>
@@ -6659,7 +6663,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>123</v>
       </c>
@@ -6681,7 +6685,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <f>EDATE(A105,1)</f>
         <v>37987</v>
@@ -6702,7 +6706,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6729,7 +6733,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -6750,7 +6754,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f t="shared" ref="A111:A213" si="2">EDATE(A110,1)</f>
         <v>38078</v>
@@ -6771,7 +6775,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -6798,7 +6802,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -6819,7 +6823,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -6846,7 +6850,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -6873,7 +6877,7 @@
         <v>37872</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -6894,7 +6898,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f t="shared" si="2"/>
         <v>38261</v>
@@ -6921,7 +6925,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <f t="shared" si="2"/>
         <v>38292</v>
@@ -6948,7 +6952,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f t="shared" si="2"/>
         <v>38322</v>
@@ -6975,7 +6979,7 @@
         <v>37906</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>48</v>
@@ -6995,7 +6999,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>182</v>
@@ -7017,7 +7021,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>124</v>
       </c>
@@ -7039,7 +7043,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="54"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f>EDATE(A119,1)</f>
         <v>38353</v>
@@ -7066,7 +7070,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f t="shared" si="2"/>
         <v>38384</v>
@@ -7091,7 +7095,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -7118,7 +7122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7136,7 +7140,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>156</v>
@@ -7158,7 +7162,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>184</v>
@@ -7178,7 +7182,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f>EDATE(A125,1)</f>
         <v>38443</v>
@@ -7199,7 +7203,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -7226,7 +7230,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>92</v>
@@ -7248,7 +7252,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <f>EDATE(A130,1)</f>
         <v>38504</v>
@@ -7275,7 +7279,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -7300,7 +7304,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -7325,7 +7329,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -7352,7 +7356,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -7373,7 +7377,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -7400,7 +7404,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -7427,7 +7431,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>48</v>
@@ -7447,7 +7451,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>168</v>
@@ -7469,7 +7473,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>194</v>
       </c>
@@ -7491,7 +7495,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f>EDATE(A138,1)</f>
         <v>38718</v>
@@ -7518,7 +7522,7 @@
         <v>38838</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>50</v>
@@ -7540,7 +7544,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EDATE(A142,1)</f>
         <v>38749</v>
@@ -7567,7 +7571,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -7592,7 +7596,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -7617,7 +7621,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -7638,7 +7642,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -7663,7 +7667,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -7690,7 +7694,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>85</v>
@@ -7712,7 +7716,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>205</v>
@@ -7732,7 +7736,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f>EDATE(A149,1)</f>
         <v>38930</v>
@@ -7757,7 +7761,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -7784,7 +7788,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>213</v>
@@ -7804,7 +7808,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>38991</v>
@@ -7831,7 +7835,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -7858,7 +7862,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>48</v>
@@ -7878,7 +7882,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>214</v>
@@ -7898,7 +7902,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A156,1)</f>
         <v>39052</v>
@@ -7925,7 +7929,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>92</v>
@@ -7947,7 +7951,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="48" t="s">
         <v>193</v>
       </c>
@@ -7969,7 +7973,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>39083</v>
@@ -7996,7 +8000,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -8018,7 +8022,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>219</v>
@@ -8038,7 +8042,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f>EDATE(A162,1)</f>
         <v>39114</v>
@@ -8063,7 +8067,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -8090,7 +8094,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>50</v>
@@ -8112,7 +8116,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>137</v>
@@ -8134,7 +8138,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>50</v>
@@ -8156,7 +8160,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>222</v>
@@ -8176,7 +8180,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f>EDATE(A166,1)</f>
         <v>39173</v>
@@ -8203,7 +8207,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>92</v>
@@ -8225,7 +8229,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>85</v>
@@ -8247,7 +8251,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -8265,7 +8269,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>229</v>
@@ -8285,7 +8289,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <f>EDATE(A171,1)</f>
         <v>39203</v>
@@ -8312,7 +8316,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>92</v>
@@ -8334,7 +8338,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>230</v>
@@ -8354,7 +8358,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A176,1)</f>
         <v>39234</v>
@@ -8381,7 +8385,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>50</v>
@@ -8403,7 +8407,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>231</v>
@@ -8423,7 +8427,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f>EDATE(A179,1)</f>
         <v>39264</v>
@@ -8450,7 +8454,7 @@
         <v>39179</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>50</v>
@@ -8472,7 +8476,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>232</v>
@@ -8492,7 +8496,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <f>EDATE(A182,1)</f>
         <v>39295</v>
@@ -8517,7 +8521,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -8544,7 +8548,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>187</v>
@@ -8566,7 +8570,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <f>EDATE(A186,1)</f>
         <v>39356</v>
@@ -8593,7 +8597,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>233</v>
@@ -8615,7 +8619,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>234</v>
@@ -8635,7 +8639,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A188,1)</f>
         <v>39387</v>
@@ -8660,7 +8664,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -8687,7 +8691,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>48</v>
@@ -8707,7 +8711,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>247</v>
@@ -8727,7 +8731,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="48" t="s">
         <v>192</v>
       </c>
@@ -8749,7 +8753,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>39448</v>
@@ -8776,7 +8780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>187</v>
@@ -8798,7 +8802,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>250</v>
@@ -8818,7 +8822,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>39479</v>
@@ -8845,7 +8849,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>50</v>
@@ -8867,7 +8871,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>251</v>
@@ -8887,7 +8891,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39508</v>
@@ -8912,7 +8916,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>168</v>
@@ -8934,7 +8938,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>252</v>
@@ -8954,7 +8958,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39539</v>
@@ -8981,7 +8985,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>254</v>
@@ -9001,7 +9005,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <f>EDATE(A205,1)</f>
         <v>39569</v>
@@ -9028,7 +9032,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>50</v>
@@ -9050,7 +9054,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>253</v>
@@ -9070,7 +9074,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <f>EDATE(A207,1)</f>
         <v>39600</v>
@@ -9097,7 +9101,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>265</v>
@@ -9117,7 +9121,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <f>EDATE(A210,1)</f>
         <v>39630</v>
@@ -9142,7 +9146,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -9169,7 +9173,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>92</v>
@@ -9191,7 +9195,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>267</v>
@@ -9211,7 +9215,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <f>EDATE(A213,1)</f>
         <v>39692</v>
@@ -9238,7 +9242,7 @@
         <v>39487</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>48</v>
@@ -9258,7 +9262,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>50</v>
@@ -9280,7 +9284,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>268</v>
@@ -9300,7 +9304,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <f>EDATE(A216,1)</f>
         <v>39722</v>
@@ -9327,7 +9331,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>50</v>
@@ -9349,7 +9353,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>269</v>
@@ -9369,7 +9373,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f>EDATE(A220,1)</f>
         <v>39753</v>
@@ -9396,7 +9400,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>50</v>
@@ -9418,7 +9422,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>92</v>
@@ -9440,7 +9444,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>270</v>
@@ -9460,7 +9464,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EDATE(A223,1)</f>
         <v>39783</v>
@@ -9487,7 +9491,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>48</v>
@@ -9507,7 +9511,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>50</v>
@@ -9529,7 +9533,7 @@
         <v>39733</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>271</v>
@@ -9549,7 +9553,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>191</v>
       </c>
@@ -9571,7 +9575,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A227,1)</f>
         <v>39814</v>
@@ -9598,7 +9602,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>283</v>
@@ -9618,7 +9622,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>39845</v>
@@ -9645,7 +9649,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>284</v>
@@ -9665,7 +9669,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>39873</v>
@@ -9690,7 +9694,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9712,7 +9716,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>285</v>
@@ -9732,7 +9736,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>39904</v>
@@ -9757,7 +9761,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <f t="shared" ref="A240:A339" si="3">EDATE(A239,1)</f>
         <v>39934</v>
@@ -9784,7 +9788,7 @@
         <v>39999</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>50</v>
@@ -9806,7 +9810,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>187</v>
@@ -9828,7 +9832,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>287</v>
@@ -9848,7 +9852,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f>EDATE(A240,1)</f>
         <v>39965</v>
@@ -9875,7 +9879,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>288</v>
@@ -9895,7 +9899,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>39995</v>
@@ -9920,7 +9924,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f t="shared" si="3"/>
         <v>40026</v>
@@ -9947,7 +9951,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -9969,7 +9973,7 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>175</v>
@@ -9991,7 +9995,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>50</v>
@@ -10013,7 +10017,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>290</v>
@@ -10033,7 +10037,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <f>EDATE(A247,1)</f>
         <v>40057</v>
@@ -10060,7 +10064,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>301</v>
@@ -10080,7 +10084,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f>EDATE(A252,1)</f>
         <v>40087</v>
@@ -10105,7 +10109,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>302</v>
@@ -10125,7 +10129,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>40118</v>
@@ -10150,7 +10154,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>50</v>
@@ -10172,7 +10176,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>303</v>
@@ -10192,7 +10196,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f>EDATE(A256,1)</f>
         <v>40148</v>
@@ -10217,7 +10221,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="48" t="s">
         <v>190</v>
       </c>
@@ -10239,7 +10243,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>40179</v>
@@ -10264,7 +10268,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <f t="shared" si="3"/>
         <v>40210</v>
@@ -10291,7 +10295,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>48</v>
@@ -10311,7 +10315,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>308</v>
@@ -10331,7 +10335,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <f>EDATE(A262,1)</f>
         <v>40238</v>
@@ -10358,7 +10362,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>48</v>
@@ -10378,7 +10382,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>50</v>
@@ -10400,7 +10404,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>309</v>
@@ -10420,7 +10424,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A265,1)</f>
         <v>40269</v>
@@ -10447,7 +10451,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>187</v>
@@ -10469,7 +10473,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>307</v>
@@ -10489,7 +10493,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <f>EDATE(A269,1)</f>
         <v>40299</v>
@@ -10516,7 +10520,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>317</v>
@@ -10536,7 +10540,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A272,1)</f>
         <v>40330</v>
@@ -10563,7 +10567,7 @@
         <v>40215</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>318</v>
@@ -10583,7 +10587,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>40360</v>
@@ -10608,7 +10612,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <f t="shared" si="3"/>
         <v>40391</v>
@@ -10633,7 +10637,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <f t="shared" si="3"/>
         <v>40422</v>
@@ -10660,7 +10664,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>321</v>
@@ -10680,7 +10684,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EDATE(A278,1)</f>
         <v>40452</v>
@@ -10707,7 +10711,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>322</v>
@@ -10727,7 +10731,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>40483</v>
@@ -10754,7 +10758,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>48</v>
@@ -10774,7 +10778,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>50</v>
@@ -10796,7 +10800,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>323</v>
@@ -10816,7 +10820,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f>EDATE(A282,1)</f>
         <v>40513</v>
@@ -10841,7 +10845,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="48" t="s">
         <v>189</v>
       </c>
@@ -10863,7 +10867,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f>EDATE(A286,1)</f>
         <v>40544</v>
@@ -10890,7 +10894,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>330</v>
@@ -10910,7 +10914,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <f>EDATE(A288,1)</f>
         <v>40575</v>
@@ -10937,7 +10941,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>92</v>
@@ -10957,7 +10961,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>333</v>
@@ -10977,7 +10981,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <f>EDATE(A290,1)</f>
         <v>40603</v>
@@ -11004,7 +11008,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>50</v>
@@ -11026,7 +11030,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>334</v>
@@ -11046,7 +11050,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <f>EDATE(A293,1)</f>
         <v>40634</v>
@@ -11073,7 +11077,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>92</v>
@@ -11095,7 +11099,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>335</v>
@@ -11115,7 +11119,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f>EDATE(A296,1)</f>
         <v>40664</v>
@@ -11142,7 +11146,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>50</v>
@@ -11164,7 +11168,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>48</v>
@@ -11184,7 +11188,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>50</v>
@@ -11206,7 +11210,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>336</v>
@@ -11226,7 +11230,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EDATE(A299,1)</f>
         <v>40695</v>
@@ -11251,7 +11255,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -11273,7 +11277,7 @@
         <v>40730</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>337</v>
@@ -11293,7 +11297,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>40725</v>
@@ -11318,7 +11322,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -11343,7 +11347,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -11370,7 +11374,7 @@
         <v>40583</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>187</v>
@@ -11392,7 +11396,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>340</v>
@@ -11412,7 +11416,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>40817</v>
@@ -11439,7 +11443,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>349</v>
@@ -11459,7 +11463,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f>EDATE(A312,1)</f>
         <v>40848</v>
@@ -11486,7 +11490,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>350</v>
@@ -11506,7 +11510,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <f>EDATE(A314,1)</f>
         <v>40878</v>
@@ -11533,7 +11537,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>351</v>
@@ -11553,7 +11557,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>352</v>
@@ -11573,7 +11577,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="48" t="s">
         <v>188</v>
       </c>
@@ -11595,7 +11599,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f>EDATE(A316,1)</f>
         <v>40909</v>
@@ -11622,7 +11626,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -11644,7 +11648,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>362</v>
@@ -11664,7 +11668,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <f>EDATE(A320,1)</f>
         <v>40940</v>
@@ -11691,7 +11695,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>63</v>
@@ -11711,7 +11715,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <f>EDATE(A323,1)</f>
         <v>40969</v>
@@ -11738,7 +11742,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>50</v>
@@ -11760,7 +11764,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>50</v>
@@ -11782,7 +11786,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>363</v>
@@ -11802,7 +11806,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f>EDATE(A325,1)</f>
         <v>41000</v>
@@ -11829,7 +11833,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>364</v>
@@ -11849,7 +11853,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>41030</v>
@@ -11876,7 +11880,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>373</v>
@@ -11896,7 +11900,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f>EDATE(A331,1)</f>
         <v>41061</v>
@@ -11925,7 +11929,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>50</v>
@@ -11947,7 +11951,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>374</v>
@@ -11967,7 +11971,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f>EDATE(A333,1)</f>
         <v>41091</v>
@@ -11992,7 +11996,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -12017,7 +12021,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f t="shared" si="3"/>
         <v>41153</v>
@@ -12042,7 +12046,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f t="shared" si="3"/>
         <v>41183</v>
@@ -12069,7 +12073,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>377</v>
@@ -12089,7 +12093,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>41214</v>
@@ -12116,7 +12120,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>378</v>
@@ -12136,7 +12140,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>233</v>
@@ -12158,7 +12162,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>379</v>
@@ -12178,7 +12182,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <f>EDATE(A341,1)</f>
         <v>41244</v>
@@ -12203,7 +12207,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="48" t="s">
         <v>360</v>
       </c>
@@ -12225,7 +12229,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <f>EDATE(A345,1)</f>
         <v>41275</v>
@@ -12252,7 +12256,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>50</v>
@@ -12274,7 +12278,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>127</v>
@@ -12294,7 +12298,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <f>EDATE(A347,1)</f>
         <v>41306</v>
@@ -12319,7 +12323,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f t="shared" ref="A351:A439" si="4">EDATE(A350,1)</f>
         <v>41334</v>
@@ -12346,7 +12350,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>387</v>
@@ -12366,7 +12370,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>41365</v>
@@ -12391,7 +12395,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <f t="shared" si="4"/>
         <v>41395</v>
@@ -12418,7 +12422,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>391</v>
@@ -12438,7 +12442,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41426</v>
@@ -12463,7 +12467,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <f t="shared" si="4"/>
         <v>41456</v>
@@ -12488,7 +12492,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>50</v>
@@ -12510,7 +12514,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>392</v>
@@ -12530,7 +12534,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f>EDATE(A357,1)</f>
         <v>41487</v>
@@ -12555,7 +12559,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -12580,7 +12584,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f t="shared" si="4"/>
         <v>41548</v>
@@ -12605,7 +12609,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>187</v>
@@ -12627,7 +12631,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>394</v>
@@ -12647,7 +12651,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A362,1)</f>
         <v>41579</v>
@@ -12674,7 +12678,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>168</v>
@@ -12696,7 +12700,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>395</v>
@@ -12716,7 +12720,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41609</v>
@@ -12741,7 +12745,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="48" t="s">
         <v>359</v>
       </c>
@@ -12763,7 +12767,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <f>EDATE(A368,1)</f>
         <v>41640</v>
@@ -12788,7 +12792,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <f t="shared" si="4"/>
         <v>41671</v>
@@ -12815,7 +12819,7 @@
         <v>41792</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>92</v>
@@ -12837,7 +12841,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>50</v>
@@ -12859,7 +12863,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>48</v>
@@ -12879,7 +12883,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>307</v>
@@ -12899,7 +12903,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <f>EDATE(A371,1)</f>
         <v>41699</v>
@@ -12924,7 +12928,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>50</v>
@@ -12946,7 +12950,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>405</v>
@@ -12966,7 +12970,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A376,1)</f>
         <v>41730</v>
@@ -12991,7 +12995,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f t="shared" si="4"/>
         <v>41760</v>
@@ -13016,7 +13020,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>168</v>
@@ -13038,7 +13042,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>50</v>
@@ -13060,7 +13064,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>407</v>
@@ -13080,7 +13084,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f>EDATE(A380,1)</f>
         <v>41791</v>
@@ -13105,7 +13109,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -13130,7 +13134,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -13155,7 +13159,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <f t="shared" si="4"/>
         <v>41883</v>
@@ -13180,7 +13184,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f t="shared" si="4"/>
         <v>41913</v>
@@ -13207,7 +13211,7 @@
         <v>41708</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>187</v>
@@ -13229,7 +13233,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>411</v>
@@ -13249,7 +13253,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>41944</v>
@@ -13276,7 +13280,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>317</v>
@@ -13296,7 +13300,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>41974</v>
@@ -13321,7 +13325,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="48" t="s">
         <v>358</v>
       </c>
@@ -13343,7 +13347,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42005</v>
@@ -13370,7 +13374,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>421</v>
@@ -13390,7 +13394,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42036</v>
@@ -13415,7 +13419,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23">
         <f t="shared" si="4"/>
         <v>42064</v>
@@ -13442,7 +13446,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>351</v>
@@ -13462,7 +13466,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>423</v>
@@ -13482,7 +13486,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <f>EDATE(A398,1)</f>
         <v>42095</v>
@@ -13507,7 +13511,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f t="shared" si="4"/>
         <v>42125</v>
@@ -13532,7 +13536,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>424</v>
@@ -13552,7 +13556,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <f>EDATE(A402,1)</f>
         <v>42156</v>
@@ -13579,7 +13583,7 @@
         <v>42314</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>425</v>
@@ -13599,7 +13603,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f>EDATE(A404,1)</f>
         <v>42186</v>
@@ -13626,7 +13630,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>426</v>
@@ -13646,7 +13650,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <f>EDATE(A406,1)</f>
         <v>42217</v>
@@ -13671,7 +13675,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -13698,7 +13702,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>45</v>
@@ -13720,7 +13724,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>427</v>
@@ -13740,7 +13744,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42278</v>
@@ -13767,7 +13771,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>57</v>
@@ -13789,7 +13793,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>435</v>
@@ -13809,7 +13813,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
         <f>EDATE(A412,1)</f>
         <v>42309</v>
@@ -13834,7 +13838,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23">
         <f t="shared" si="4"/>
         <v>42339</v>
@@ -13859,7 +13863,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>357</v>
       </c>
@@ -13881,7 +13885,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f>EDATE(A416,1)</f>
         <v>42370</v>
@@ -13906,7 +13910,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <f t="shared" si="4"/>
         <v>42401</v>
@@ -13931,7 +13935,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23">
         <f t="shared" si="4"/>
         <v>42430</v>
@@ -13958,7 +13962,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>48</v>
@@ -13978,7 +13982,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>405</v>
@@ -13998,7 +14002,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f>EDATE(A420,1)</f>
         <v>42461</v>
@@ -14023,7 +14027,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23">
         <f t="shared" si="4"/>
         <v>42491</v>
@@ -14048,7 +14052,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>50</v>
@@ -14070,7 +14074,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>443</v>
@@ -14090,7 +14094,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <f>EDATE(A424,1)</f>
         <v>42522</v>
@@ -14115,7 +14119,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f t="shared" si="4"/>
         <v>42552</v>
@@ -14140,7 +14144,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -14165,7 +14169,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -14192,7 +14196,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>450</v>
@@ -14212,7 +14216,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="55"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>42644</v>
@@ -14239,7 +14243,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>50</v>
@@ -14261,7 +14265,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>57</v>
@@ -14283,7 +14287,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -14303,7 +14307,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>45</v>
@@ -14325,7 +14329,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>451</v>
@@ -14345,7 +14349,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EDATE(A432,1)</f>
         <v>42675</v>
@@ -14370,7 +14374,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -14395,7 +14399,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="48" t="s">
         <v>44</v>
       </c>
@@ -14417,7 +14421,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>42736</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>46</v>
@@ -14463,7 +14467,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="49"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>42767</v>
       </c>
@@ -14487,7 +14491,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42795</v>
       </c>
@@ -14511,7 +14515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>45</v>
@@ -14533,7 +14537,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>50</v>
@@ -14555,7 +14559,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>50</v>
@@ -14577,7 +14581,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>51</v>
@@ -14597,7 +14601,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42826</v>
       </c>
@@ -14623,7 +14627,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>52</v>
@@ -14643,7 +14647,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="49"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42856</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="15" t="s">
         <v>48</v>
@@ -14689,7 +14693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="15" t="s">
         <v>50</v>
@@ -14711,7 +14715,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="15" t="s">
         <v>53</v>
@@ -14731,7 +14735,7 @@
       <c r="J454" s="12"/>
       <c r="K454" s="15"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42887</v>
       </c>
@@ -14751,7 +14755,7 @@
       <c r="J455" s="12"/>
       <c r="K455" s="15"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>42917</v>
       </c>
@@ -14775,7 +14779,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42948</v>
       </c>
@@ -14801,7 +14805,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>52</v>
@@ -14821,7 +14825,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="49"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42979</v>
       </c>
@@ -14845,7 +14849,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43009</v>
       </c>
@@ -14871,7 +14875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>50</v>
@@ -14893,7 +14897,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>45</v>
@@ -14915,7 +14919,7 @@
         <v>43063</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>59</v>
@@ -14935,7 +14939,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43040</v>
       </c>
@@ -14959,7 +14963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43070</v>
       </c>
@@ -14979,7 +14983,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="48" t="s">
         <v>61</v>
       </c>
@@ -14997,7 +15001,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43101</v>
       </c>
@@ -15017,7 +15021,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43132</v>
       </c>
@@ -15037,7 +15041,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43160</v>
       </c>
@@ -15057,7 +15061,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43191</v>
       </c>
@@ -15081,7 +15085,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>50</v>
@@ -15103,7 +15107,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43221</v>
       </c>
@@ -15127,7 +15131,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43252</v>
       </c>
@@ -15151,7 +15155,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43282</v>
       </c>
@@ -15171,7 +15175,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43313</v>
       </c>
@@ -15195,7 +15199,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43344</v>
       </c>
@@ -15215,7 +15219,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43374</v>
       </c>
@@ -15241,7 +15245,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>66</v>
@@ -15263,7 +15267,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -15283,7 +15287,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>67</v>
@@ -15303,7 +15307,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43405</v>
       </c>
@@ -15329,7 +15333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>70</v>
@@ -15349,7 +15353,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43435</v>
       </c>
@@ -15373,7 +15377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>50</v>
@@ -15395,7 +15399,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>71</v>
@@ -15415,7 +15419,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="48" t="s">
         <v>74</v>
       </c>
@@ -15433,7 +15437,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>43466</v>
       </c>
@@ -15453,7 +15457,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43497</v>
       </c>
@@ -15473,7 +15477,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43525</v>
       </c>
@@ -15493,7 +15497,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>43556</v>
       </c>
@@ -15517,7 +15521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43586</v>
       </c>
@@ -15543,7 +15547,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>48</v>
@@ -15563,7 +15567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>66</v>
@@ -15585,7 +15589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>50</v>
@@ -15606,7 +15610,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43617</v>
       </c>
@@ -15626,7 +15630,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43647</v>
       </c>
@@ -15652,7 +15656,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>43678</v>
       </c>
@@ -15678,7 +15682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>50</v>
@@ -15700,7 +15704,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>45</v>
@@ -15722,7 +15726,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43709</v>
       </c>
@@ -15742,7 +15746,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>43739</v>
       </c>
@@ -15768,7 +15772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43770</v>
       </c>
@@ -15794,7 +15798,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>50</v>
@@ -15816,7 +15820,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43800</v>
       </c>
@@ -15836,7 +15840,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="48" t="s">
         <v>81</v>
       </c>
@@ -15854,7 +15858,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43831</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>82</v>
@@ -15900,7 +15904,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>50</v>
@@ -15922,7 +15926,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43862</v>
       </c>
@@ -15942,7 +15946,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>43891</v>
       </c>
@@ -15968,7 +15972,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43922</v>
       </c>
@@ -15988,7 +15992,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>43952</v>
       </c>
@@ -16008,7 +16012,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43983</v>
       </c>
@@ -16028,7 +16032,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>44013</v>
       </c>
@@ -16052,7 +16056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44044</v>
       </c>
@@ -16072,7 +16076,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44075</v>
       </c>
@@ -16092,7 +16096,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44105</v>
       </c>
@@ -16112,7 +16116,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44136</v>
       </c>
@@ -16132,7 +16136,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44166</v>
       </c>
@@ -16156,7 +16160,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
         <v>86</v>
       </c>
@@ -16174,7 +16178,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>44197</v>
       </c>
@@ -16194,7 +16198,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44228</v>
       </c>
@@ -16214,7 +16218,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44256</v>
       </c>
@@ -16234,7 +16238,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44287</v>
       </c>
@@ -16254,7 +16258,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44317</v>
       </c>
@@ -16274,7 +16278,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44348</v>
       </c>
@@ -16294,7 +16298,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44378</v>
       </c>
@@ -16318,7 +16322,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44409</v>
       </c>
@@ -16338,7 +16342,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44440</v>
       </c>
@@ -16358,7 +16362,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44470</v>
       </c>
@@ -16384,7 +16388,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>57</v>
@@ -16406,7 +16410,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>48</v>
@@ -16426,7 +16430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44501</v>
       </c>
@@ -16446,7 +16450,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44531</v>
       </c>
@@ -16472,7 +16476,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="48" t="s">
         <v>90</v>
       </c>
@@ -16490,7 +16494,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44562</v>
       </c>
@@ -16516,7 +16520,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44593</v>
       </c>
@@ -16536,7 +16540,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44621</v>
       </c>
@@ -16556,7 +16560,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44652</v>
       </c>
@@ -16580,7 +16584,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44682</v>
       </c>
@@ -16604,7 +16608,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44713</v>
       </c>
@@ -16628,7 +16632,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44743</v>
       </c>
@@ -16654,7 +16658,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16674,7 +16678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>469</v>
@@ -16694,7 +16698,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="49"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44774</v>
       </c>
@@ -16720,7 +16724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>468</v>
@@ -16740,7 +16744,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44805</v>
       </c>
@@ -16764,7 +16768,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44835</v>
       </c>
@@ -16790,7 +16794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>50</v>
@@ -16812,7 +16816,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>48</v>
@@ -16832,7 +16836,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>48</v>
@@ -16852,7 +16856,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>50</v>
@@ -16874,7 +16878,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>466</v>
@@ -16894,7 +16898,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="49"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44866</v>
       </c>
@@ -16920,7 +16924,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>92</v>
@@ -16942,7 +16946,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>57</v>
@@ -16964,7 +16968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>50</v>
@@ -16986,7 +16990,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>50</v>
@@ -17008,7 +17012,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>53</v>
@@ -17028,7 +17032,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="49"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44896</v>
       </c>
@@ -17054,7 +17058,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>100</v>
@@ -17076,7 +17080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>104</v>
@@ -17098,7 +17102,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>129</v>
@@ -17118,7 +17122,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="48" t="s">
         <v>95</v>
       </c>
@@ -17136,7 +17140,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>44927</v>
       </c>
@@ -17162,7 +17166,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>44958</v>
       </c>
@@ -17188,7 +17192,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>50</v>
@@ -17210,7 +17214,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>111</v>
@@ -17232,7 +17236,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>44986</v>
       </c>
@@ -17258,7 +17262,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>109</v>
@@ -17280,7 +17284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45017</v>
       </c>
@@ -17306,7 +17310,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45047</v>
       </c>
@@ -17332,7 +17336,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>92</v>
@@ -17354,7 +17358,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>351</v>
@@ -17374,7 +17378,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>45078</v>
       </c>
@@ -17400,7 +17404,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>50</v>
@@ -17422,7 +17426,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>45108</v>
       </c>
@@ -17446,7 +17450,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>45139</v>
       </c>
@@ -17472,7 +17476,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>45170</v>
       </c>
@@ -17492,7 +17496,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>45200</v>
       </c>
@@ -17518,7 +17522,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>48</v>
@@ -17538,7 +17542,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>233</v>
@@ -17560,7 +17564,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>50</v>
@@ -17582,7 +17586,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>45231</v>
       </c>
@@ -17608,7 +17612,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>168</v>
@@ -17630,7 +17634,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>50</v>
@@ -17652,20 +17656,22 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>45261</v>
       </c>
       <c r="B587" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C587" s="13"/>
+      <c r="C587" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G587" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H587" s="39">
         <v>2</v>
@@ -17676,7 +17682,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>50</v>
@@ -17698,11 +17704,11 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="B589" s="20"/>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A589" s="40"/>
+      <c r="B589" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
@@ -17711,14 +17717,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H589" s="39"/>
+      <c r="H589" s="39">
+        <v>6</v>
+      </c>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20"/>
-    </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="40">
-        <v>45292</v>
+      <c r="K589" s="49" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A590" s="48" t="s">
+        <v>478</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -17734,9 +17744,9 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -17752,9 +17762,9 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17770,9 +17780,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17788,9 +17798,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17806,9 +17816,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17824,9 +17834,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17842,9 +17852,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17860,9 +17870,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17878,9 +17888,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17896,9 +17906,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17914,9 +17924,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17932,9 +17942,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17950,9 +17960,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17968,9 +17978,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17986,9 +17996,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -18004,9 +18014,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -18022,9 +18032,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -18040,9 +18050,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -18058,9 +18068,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -18076,9 +18086,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -18094,9 +18104,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -18112,9 +18122,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -18130,9 +18140,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -18148,9 +18158,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -18166,9 +18176,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -18184,9 +18194,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -18202,9 +18212,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -18220,8 +18230,10 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="40"/>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A618" s="40">
+        <v>46113</v>
+      </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
       <c r="D618" s="39"/>
@@ -18236,7 +18248,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -18252,7 +18264,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -18268,7 +18280,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -18284,7 +18296,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -18300,7 +18312,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -18316,7 +18328,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -18332,21 +18344,37 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A625" s="41"/>
-      <c r="B625" s="15"/>
-      <c r="C625" s="42"/>
-      <c r="D625" s="43"/>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A625" s="40"/>
+      <c r="B625" s="20"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="39"/>
       <c r="E625" s="9"/>
-      <c r="F625" s="15"/>
-      <c r="G625" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H625" s="43"/>
+      <c r="F625" s="20"/>
+      <c r="G625" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H625" s="39"/>
       <c r="I625" s="9"/>
-      <c r="J625" s="12"/>
-      <c r="K625" s="15"/>
+      <c r="J625" s="11"/>
+      <c r="K625" s="20"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A626" s="41"/>
+      <c r="B626" s="15"/>
+      <c r="C626" s="42"/>
+      <c r="D626" s="43"/>
+      <c r="E626" s="9"/>
+      <c r="F626" s="15"/>
+      <c r="G626" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H626" s="43"/>
+      <c r="I626" s="9"/>
+      <c r="J626" s="12"/>
+      <c r="K626" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18363,10 +18391,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18389,7 +18417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18397,21 +18425,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -18424,7 +18452,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18453,7 +18481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -18479,17 +18507,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18510,7 +18538,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18537,7 +18565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18563,7 +18591,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18589,7 +18617,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18615,7 +18643,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18641,7 +18669,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18667,7 +18695,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18693,7 +18721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18719,7 +18747,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18739,7 +18767,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18759,7 +18787,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18779,7 +18807,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18800,7 +18828,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18821,7 +18849,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18842,7 +18870,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18863,7 +18891,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18884,7 +18912,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18905,7 +18933,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18926,7 +18954,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18947,7 +18975,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18968,7 +18996,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18989,7 +19017,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19010,7 +19038,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19031,7 +19059,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19052,7 +19080,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19073,7 +19101,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19094,7 +19122,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19115,7 +19143,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19136,7 +19164,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19157,7 +19185,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19178,7 +19206,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19199,7 +19227,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19208,7 +19236,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19217,7 +19245,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19226,7 +19254,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19235,7 +19263,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19244,7 +19272,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19253,7 +19281,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19262,7 +19290,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19271,7 +19299,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19280,7 +19308,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19289,7 +19317,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19298,7 +19326,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19307,7 +19335,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19316,7 +19344,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19325,7 +19353,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19334,7 +19362,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19343,7 +19371,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19352,7 +19380,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19361,7 +19389,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19370,7 +19398,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19379,7 +19407,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19388,7 +19416,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19397,7 +19425,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19406,7 +19434,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19415,7 +19443,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19424,7 +19452,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19433,7 +19461,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19442,7 +19470,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19451,7 +19479,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19460,7 +19488,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276766D-F53E-43C9-835F-8D27C840B437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE99C2-E9F9-46AC-BE93-757ED02069CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="481">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4278,9 +4278,8 @@
   <dimension ref="A2:K626"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A581" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B590" sqref="B590"/>
+      <pane ySplit="3288" topLeftCell="A581" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K592" sqref="K592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4451,7 +4450,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15.125</v>
+        <v>14.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17746,9 +17745,11 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B591" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B591" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
       <c r="E591" s="9"/>
@@ -17757,14 +17758,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H591" s="39"/>
+      <c r="H591" s="39">
+        <v>1</v>
+      </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
+      <c r="K591" s="49">
+        <v>45295</v>
+      </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17782,7 +17787,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17800,7 +17805,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17818,7 +17823,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17836,7 +17841,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17854,7 +17859,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17872,7 +17877,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17890,7 +17895,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17908,7 +17913,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17926,7 +17931,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17944,7 +17949,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17962,7 +17967,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17980,7 +17985,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17998,7 +18003,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -18016,7 +18021,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -18034,7 +18039,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>45778</v>
+        <v>45808</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -18052,7 +18057,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -18070,7 +18075,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -18088,7 +18093,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>45870</v>
+        <v>45900</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -18106,7 +18111,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>45901</v>
+        <v>45930</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -18124,7 +18129,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>45931</v>
+        <v>45961</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -18142,7 +18147,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -18160,7 +18165,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>45992</v>
+        <v>46022</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -18178,7 +18183,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>46023</v>
+        <v>46053</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -18196,7 +18201,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>46054</v>
+        <v>46081</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -18214,7 +18219,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>46082</v>
+        <v>46112</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -18232,7 +18237,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
-        <v>46113</v>
+        <v>46142</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>

--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE99C2-E9F9-46AC-BE93-757ED02069CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="483">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1478,12 +1477,18 @@
   </si>
   <si>
     <t>12/20-22,27-29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-35)</t>
+  </si>
+  <si>
+    <t>UT(0-0-52)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2361,7 +2366,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2409,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2473,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2533,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2599,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2662,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2760,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2819,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2884,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2927,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +3002,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3183,7 +3188,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3254,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3312,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3378,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3434,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3509,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +3552,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3618,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3669,7 +3674,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3772,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,7 +3835,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3879,7 +3884,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3896,26 +3901,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K626" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K626" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K628" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K628"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3927,13 +3932,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3942,14 +3947,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4253,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4263,7 +4268,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4271,33 +4276,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K626"/>
+  <dimension ref="A2:K628"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3288" topLeftCell="A581" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K592" sqref="K592"/>
+      <pane ySplit="3690" topLeftCell="A578" activePane="bottomLeft"/>
+      <selection activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E600" sqref="E600"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4318,7 +4324,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4336,7 +4342,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4358,7 +4364,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4366,7 +4372,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4379,7 +4385,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4396,7 +4402,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4440,7 +4446,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>111.50700000000006</v>
+        <v>110.82600000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4455,7 +4461,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>113</v>
       </c>
@@ -4473,7 +4479,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -4493,7 +4499,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>115</v>
       </c>
@@ -4513,7 +4519,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>116</v>
       </c>
@@ -4537,7 +4543,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>117</v>
       </c>
@@ -4555,7 +4561,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>35796</v>
       </c>
@@ -4579,7 +4585,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f>EDATE(A15,1)</f>
         <v>35827</v>
@@ -4604,7 +4610,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" ref="A17:A27" si="0">EDATE(A16,1)</f>
         <v>35855</v>
@@ -4629,7 +4635,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4654,7 +4660,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4675,7 +4681,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>35947</v>
@@ -4700,7 +4706,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>85</v>
@@ -4720,7 +4726,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f>EDATE(A20,1)</f>
         <v>35977</v>
@@ -4745,7 +4751,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4770,7 +4776,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4797,7 +4803,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>132</v>
@@ -4817,7 +4823,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36069</v>
@@ -4844,7 +4850,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -4865,7 +4871,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f>EDATE(A27,1)</f>
         <v>36130</v>
@@ -4892,7 +4898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>118</v>
       </c>
@@ -4914,7 +4920,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f>EDATE(A28,1)</f>
         <v>36161</v>
@@ -4935,7 +4941,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" ref="A31:A110" si="1">EDATE(A30,1)</f>
         <v>36192</v>
@@ -4956,7 +4962,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -4977,7 +4983,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -4998,7 +5004,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -5025,7 +5031,7 @@
         <v>36285</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>92</v>
@@ -5047,7 +5053,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>136</v>
@@ -5069,7 +5075,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A34,1)</f>
         <v>36312</v>
@@ -5090,7 +5096,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -5111,7 +5117,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -5132,7 +5138,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -5153,7 +5159,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -5184,7 +5190,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -5211,7 +5217,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -5238,7 +5244,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>57</v>
@@ -5260,7 +5266,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>119</v>
       </c>
@@ -5282,7 +5288,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f>EDATE(A43,1)</f>
         <v>36526</v>
@@ -5303,7 +5309,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="1"/>
         <v>36557</v>
@@ -5324,7 +5330,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="1"/>
         <v>36586</v>
@@ -5347,7 +5353,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -5370,7 +5376,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -5391,7 +5397,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -5412,7 +5418,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -5433,7 +5439,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -5454,7 +5460,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -5475,7 +5481,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -5502,7 +5508,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A55,1)</f>
         <v>36831</v>
@@ -5529,7 +5535,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -5552,7 +5558,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>120</v>
       </c>
@@ -5574,7 +5580,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>36892</v>
@@ -5595,7 +5601,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="1"/>
         <v>36923</v>
@@ -5616,7 +5622,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5643,7 +5649,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5661,7 +5667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5679,7 +5685,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EDATE(A61,1)</f>
         <v>36982</v>
@@ -5700,7 +5706,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5721,7 +5727,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5742,7 +5748,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5763,7 +5769,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -5784,7 +5790,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -5805,7 +5811,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -5832,7 +5838,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>92</v>
@@ -5854,7 +5860,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37196</v>
@@ -5881,7 +5887,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="1"/>
         <v>37226</v>
@@ -5902,7 +5908,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>121</v>
       </c>
@@ -5924,7 +5930,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f>EDATE(A73,1)</f>
         <v>37257</v>
@@ -5945,7 +5951,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -5966,7 +5972,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -5993,7 +5999,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -6016,7 +6022,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6043,7 +6049,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -6070,7 +6076,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>92</v>
@@ -6092,7 +6098,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>37438</v>
@@ -6119,7 +6125,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>137</v>
@@ -6141,7 +6147,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>92</v>
@@ -6163,7 +6169,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f>EDATE(A82,1)</f>
         <v>37469</v>
@@ -6184,7 +6190,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -6205,7 +6211,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -6232,7 +6238,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>156</v>
@@ -6254,7 +6260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>37561</v>
@@ -6281,7 +6287,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -6304,7 +6310,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>122</v>
       </c>
@@ -6326,7 +6332,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>37622</v>
@@ -6347,7 +6353,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -6368,7 +6374,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -6389,7 +6395,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>37712</v>
@@ -6410,7 +6416,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -6433,7 +6439,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -6454,7 +6460,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -6481,7 +6487,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>167</v>
@@ -6501,7 +6507,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>37834</v>
@@ -6526,7 +6532,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6547,7 +6553,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6574,7 +6580,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6592,7 +6598,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>37926</v>
@@ -6615,7 +6621,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6642,7 +6648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>168</v>
@@ -6662,7 +6668,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>123</v>
       </c>
@@ -6684,7 +6690,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f>EDATE(A105,1)</f>
         <v>37987</v>
@@ -6705,7 +6711,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6732,7 +6738,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -6753,7 +6759,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" ref="A111:A213" si="2">EDATE(A110,1)</f>
         <v>38078</v>
@@ -6774,7 +6780,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -6801,7 +6807,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -6822,7 +6828,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -6849,7 +6855,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -6876,7 +6882,7 @@
         <v>37872</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -6897,7 +6903,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" si="2"/>
         <v>38261</v>
@@ -6924,7 +6930,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="2"/>
         <v>38292</v>
@@ -6951,7 +6957,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="2"/>
         <v>38322</v>
@@ -6978,7 +6984,7 @@
         <v>37906</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>48</v>
@@ -6998,7 +7004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>182</v>
@@ -7020,7 +7026,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>124</v>
       </c>
@@ -7042,7 +7048,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="54"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A119,1)</f>
         <v>38353</v>
@@ -7069,7 +7075,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" si="2"/>
         <v>38384</v>
@@ -7094,7 +7100,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -7121,7 +7127,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7139,7 +7145,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>156</v>
@@ -7161,7 +7167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>184</v>
@@ -7181,7 +7187,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f>EDATE(A125,1)</f>
         <v>38443</v>
@@ -7202,7 +7208,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -7229,7 +7235,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>92</v>
@@ -7251,7 +7257,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f>EDATE(A130,1)</f>
         <v>38504</v>
@@ -7278,7 +7284,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -7303,7 +7309,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -7328,7 +7334,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -7355,7 +7361,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -7376,7 +7382,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -7403,7 +7409,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -7430,7 +7436,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>48</v>
@@ -7450,7 +7456,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>168</v>
@@ -7472,7 +7478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>194</v>
       </c>
@@ -7494,7 +7500,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A138,1)</f>
         <v>38718</v>
@@ -7521,7 +7527,7 @@
         <v>38838</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>50</v>
@@ -7543,7 +7549,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f>EDATE(A142,1)</f>
         <v>38749</v>
@@ -7570,7 +7576,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -7595,7 +7601,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -7620,7 +7626,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -7641,7 +7647,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -7666,7 +7672,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -7693,7 +7699,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>85</v>
@@ -7715,7 +7721,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>205</v>
@@ -7735,7 +7741,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f>EDATE(A149,1)</f>
         <v>38930</v>
@@ -7760,7 +7766,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -7787,7 +7793,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>213</v>
@@ -7807,7 +7813,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>38991</v>
@@ -7834,7 +7840,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -7861,7 +7867,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>48</v>
@@ -7881,7 +7887,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>214</v>
@@ -7901,7 +7907,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A156,1)</f>
         <v>39052</v>
@@ -7928,7 +7934,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>92</v>
@@ -7950,7 +7956,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
         <v>193</v>
       </c>
@@ -7972,7 +7978,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>39083</v>
@@ -7999,7 +8005,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -8021,7 +8027,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>219</v>
@@ -8041,7 +8047,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f>EDATE(A162,1)</f>
         <v>39114</v>
@@ -8066,7 +8072,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -8093,7 +8099,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>50</v>
@@ -8115,7 +8121,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>137</v>
@@ -8137,7 +8143,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>50</v>
@@ -8159,7 +8165,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>222</v>
@@ -8179,7 +8185,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A166,1)</f>
         <v>39173</v>
@@ -8206,7 +8212,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>92</v>
@@ -8228,7 +8234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>85</v>
@@ -8250,7 +8256,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -8268,7 +8274,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>229</v>
@@ -8288,7 +8294,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <f>EDATE(A171,1)</f>
         <v>39203</v>
@@ -8315,7 +8321,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>92</v>
@@ -8337,7 +8343,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>230</v>
@@ -8357,7 +8363,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A176,1)</f>
         <v>39234</v>
@@ -8384,7 +8390,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>50</v>
@@ -8406,7 +8412,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>231</v>
@@ -8426,7 +8432,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f>EDATE(A179,1)</f>
         <v>39264</v>
@@ -8453,7 +8459,7 @@
         <v>39179</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>50</v>
@@ -8475,7 +8481,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>232</v>
@@ -8495,7 +8501,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f>EDATE(A182,1)</f>
         <v>39295</v>
@@ -8520,7 +8526,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -8547,7 +8553,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>187</v>
@@ -8569,7 +8575,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f>EDATE(A186,1)</f>
         <v>39356</v>
@@ -8596,7 +8602,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>233</v>
@@ -8618,7 +8624,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>234</v>
@@ -8638,7 +8644,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A188,1)</f>
         <v>39387</v>
@@ -8663,7 +8669,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -8690,7 +8696,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>48</v>
@@ -8710,7 +8716,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>247</v>
@@ -8730,7 +8736,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
         <v>192</v>
       </c>
@@ -8752,7 +8758,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>39448</v>
@@ -8779,7 +8785,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>187</v>
@@ -8801,7 +8807,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>250</v>
@@ -8821,7 +8827,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>39479</v>
@@ -8848,7 +8854,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>50</v>
@@ -8870,7 +8876,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>251</v>
@@ -8890,7 +8896,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39508</v>
@@ -8915,7 +8921,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>168</v>
@@ -8937,7 +8943,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>252</v>
@@ -8957,7 +8963,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39539</v>
@@ -8984,7 +8990,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>254</v>
@@ -9004,7 +9010,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f>EDATE(A205,1)</f>
         <v>39569</v>
@@ -9031,7 +9037,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>50</v>
@@ -9053,7 +9059,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>253</v>
@@ -9073,7 +9079,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f>EDATE(A207,1)</f>
         <v>39600</v>
@@ -9100,7 +9106,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>265</v>
@@ -9120,7 +9126,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <f>EDATE(A210,1)</f>
         <v>39630</v>
@@ -9145,7 +9151,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -9172,7 +9178,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>92</v>
@@ -9194,7 +9200,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>267</v>
@@ -9214,7 +9220,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <f>EDATE(A213,1)</f>
         <v>39692</v>
@@ -9241,7 +9247,7 @@
         <v>39487</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>48</v>
@@ -9261,7 +9267,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>50</v>
@@ -9283,7 +9289,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>268</v>
@@ -9303,7 +9309,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A216,1)</f>
         <v>39722</v>
@@ -9330,7 +9336,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>50</v>
@@ -9352,7 +9358,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>269</v>
@@ -9372,7 +9378,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A220,1)</f>
         <v>39753</v>
@@ -9399,7 +9405,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>50</v>
@@ -9421,7 +9427,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>92</v>
@@ -9443,7 +9449,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>270</v>
@@ -9463,7 +9469,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f>EDATE(A223,1)</f>
         <v>39783</v>
@@ -9490,7 +9496,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>48</v>
@@ -9510,7 +9516,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>50</v>
@@ -9532,7 +9538,7 @@
         <v>39733</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>271</v>
@@ -9552,7 +9558,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>191</v>
       </c>
@@ -9574,7 +9580,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A227,1)</f>
         <v>39814</v>
@@ -9601,7 +9607,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>283</v>
@@ -9621,7 +9627,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>39845</v>
@@ -9648,7 +9654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>284</v>
@@ -9668,7 +9674,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>39873</v>
@@ -9693,7 +9699,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9715,7 +9721,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>285</v>
@@ -9735,7 +9741,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>39904</v>
@@ -9760,7 +9766,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f t="shared" ref="A240:A339" si="3">EDATE(A239,1)</f>
         <v>39934</v>
@@ -9787,7 +9793,7 @@
         <v>39999</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>50</v>
@@ -9809,7 +9815,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>187</v>
@@ -9831,7 +9837,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>287</v>
@@ -9851,7 +9857,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f>EDATE(A240,1)</f>
         <v>39965</v>
@@ -9878,7 +9884,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>288</v>
@@ -9898,7 +9904,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>39995</v>
@@ -9923,7 +9929,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="3"/>
         <v>40026</v>
@@ -9950,7 +9956,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -9972,7 +9978,7 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>175</v>
@@ -9994,7 +10000,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>50</v>
@@ -10016,7 +10022,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>290</v>
@@ -10036,7 +10042,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <f>EDATE(A247,1)</f>
         <v>40057</v>
@@ -10063,7 +10069,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>301</v>
@@ -10083,7 +10089,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A252,1)</f>
         <v>40087</v>
@@ -10108,7 +10114,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>302</v>
@@ -10128,7 +10134,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>40118</v>
@@ -10153,7 +10159,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>50</v>
@@ -10175,7 +10181,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>303</v>
@@ -10195,7 +10201,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A256,1)</f>
         <v>40148</v>
@@ -10220,7 +10226,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="48" t="s">
         <v>190</v>
       </c>
@@ -10242,7 +10248,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>40179</v>
@@ -10267,7 +10273,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f t="shared" si="3"/>
         <v>40210</v>
@@ -10294,7 +10300,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>48</v>
@@ -10314,7 +10320,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>308</v>
@@ -10334,7 +10340,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A262,1)</f>
         <v>40238</v>
@@ -10361,7 +10367,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>48</v>
@@ -10381,7 +10387,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>50</v>
@@ -10403,7 +10409,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>309</v>
@@ -10423,7 +10429,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A265,1)</f>
         <v>40269</v>
@@ -10450,7 +10456,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>187</v>
@@ -10472,7 +10478,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>307</v>
@@ -10492,7 +10498,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <f>EDATE(A269,1)</f>
         <v>40299</v>
@@ -10519,7 +10525,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>317</v>
@@ -10539,7 +10545,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A272,1)</f>
         <v>40330</v>
@@ -10566,7 +10572,7 @@
         <v>40215</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>318</v>
@@ -10586,7 +10592,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>40360</v>
@@ -10611,7 +10617,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f t="shared" si="3"/>
         <v>40391</v>
@@ -10636,7 +10642,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f t="shared" si="3"/>
         <v>40422</v>
@@ -10663,7 +10669,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>321</v>
@@ -10683,7 +10689,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A278,1)</f>
         <v>40452</v>
@@ -10710,7 +10716,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>322</v>
@@ -10730,7 +10736,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>40483</v>
@@ -10757,7 +10763,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>48</v>
@@ -10777,7 +10783,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>50</v>
@@ -10799,7 +10805,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>323</v>
@@ -10819,7 +10825,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f>EDATE(A282,1)</f>
         <v>40513</v>
@@ -10844,7 +10850,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="48" t="s">
         <v>189</v>
       </c>
@@ -10866,7 +10872,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f>EDATE(A286,1)</f>
         <v>40544</v>
@@ -10893,7 +10899,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>330</v>
@@ -10913,7 +10919,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f>EDATE(A288,1)</f>
         <v>40575</v>
@@ -10940,7 +10946,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>92</v>
@@ -10960,7 +10966,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>333</v>
@@ -10980,7 +10986,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f>EDATE(A290,1)</f>
         <v>40603</v>
@@ -11007,7 +11013,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>50</v>
@@ -11029,7 +11035,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>334</v>
@@ -11049,7 +11055,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f>EDATE(A293,1)</f>
         <v>40634</v>
@@ -11076,7 +11082,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>92</v>
@@ -11098,7 +11104,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>335</v>
@@ -11118,7 +11124,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A296,1)</f>
         <v>40664</v>
@@ -11145,7 +11151,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>50</v>
@@ -11167,7 +11173,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>48</v>
@@ -11187,7 +11193,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>50</v>
@@ -11209,7 +11215,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>336</v>
@@ -11229,7 +11235,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A299,1)</f>
         <v>40695</v>
@@ -11254,7 +11260,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -11276,7 +11282,7 @@
         <v>40730</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>337</v>
@@ -11296,7 +11302,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>40725</v>
@@ -11321,7 +11327,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -11346,7 +11352,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -11373,7 +11379,7 @@
         <v>40583</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>187</v>
@@ -11395,7 +11401,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>340</v>
@@ -11415,7 +11421,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>40817</v>
@@ -11442,7 +11448,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>349</v>
@@ -11462,7 +11468,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f>EDATE(A312,1)</f>
         <v>40848</v>
@@ -11489,7 +11495,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>350</v>
@@ -11509,7 +11515,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A314,1)</f>
         <v>40878</v>
@@ -11536,7 +11542,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>351</v>
@@ -11556,7 +11562,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>352</v>
@@ -11576,7 +11582,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
         <v>188</v>
       </c>
@@ -11598,7 +11604,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A316,1)</f>
         <v>40909</v>
@@ -11625,7 +11631,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -11647,7 +11653,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>362</v>
@@ -11667,7 +11673,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A320,1)</f>
         <v>40940</v>
@@ -11694,7 +11700,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>63</v>
@@ -11714,7 +11720,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f>EDATE(A323,1)</f>
         <v>40969</v>
@@ -11741,7 +11747,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>50</v>
@@ -11763,7 +11769,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>50</v>
@@ -11785,7 +11791,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>363</v>
@@ -11805,7 +11811,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f>EDATE(A325,1)</f>
         <v>41000</v>
@@ -11832,7 +11838,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>364</v>
@@ -11852,7 +11858,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>41030</v>
@@ -11879,7 +11885,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>373</v>
@@ -11899,7 +11905,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A331,1)</f>
         <v>41061</v>
@@ -11928,7 +11934,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>50</v>
@@ -11950,7 +11956,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>374</v>
@@ -11970,7 +11976,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A333,1)</f>
         <v>41091</v>
@@ -11995,7 +12001,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -12020,7 +12026,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f t="shared" si="3"/>
         <v>41153</v>
@@ -12045,7 +12051,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f t="shared" si="3"/>
         <v>41183</v>
@@ -12072,7 +12078,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>377</v>
@@ -12092,7 +12098,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>41214</v>
@@ -12119,7 +12125,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>378</v>
@@ -12139,7 +12145,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>233</v>
@@ -12161,7 +12167,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>379</v>
@@ -12181,7 +12187,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f>EDATE(A341,1)</f>
         <v>41244</v>
@@ -12206,7 +12212,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="48" t="s">
         <v>360</v>
       </c>
@@ -12228,7 +12234,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <f>EDATE(A345,1)</f>
         <v>41275</v>
@@ -12255,7 +12261,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>50</v>
@@ -12277,7 +12283,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>127</v>
@@ -12297,7 +12303,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A347,1)</f>
         <v>41306</v>
@@ -12322,7 +12328,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" ref="A351:A439" si="4">EDATE(A350,1)</f>
         <v>41334</v>
@@ -12349,7 +12355,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>387</v>
@@ -12369,7 +12375,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>41365</v>
@@ -12394,7 +12400,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f t="shared" si="4"/>
         <v>41395</v>
@@ -12421,7 +12427,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>391</v>
@@ -12441,7 +12447,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41426</v>
@@ -12466,7 +12472,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <f t="shared" si="4"/>
         <v>41456</v>
@@ -12491,7 +12497,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>50</v>
@@ -12513,7 +12519,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>392</v>
@@ -12533,7 +12539,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <f>EDATE(A357,1)</f>
         <v>41487</v>
@@ -12558,7 +12564,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -12583,7 +12589,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f t="shared" si="4"/>
         <v>41548</v>
@@ -12608,7 +12614,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>187</v>
@@ -12630,7 +12636,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>394</v>
@@ -12650,7 +12656,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A362,1)</f>
         <v>41579</v>
@@ -12677,7 +12683,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>168</v>
@@ -12699,7 +12705,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>395</v>
@@ -12719,7 +12725,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41609</v>
@@ -12744,7 +12750,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="48" t="s">
         <v>359</v>
       </c>
@@ -12766,7 +12772,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <f>EDATE(A368,1)</f>
         <v>41640</v>
@@ -12791,7 +12797,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <f t="shared" si="4"/>
         <v>41671</v>
@@ -12818,7 +12824,7 @@
         <v>41792</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>92</v>
@@ -12840,7 +12846,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>50</v>
@@ -12862,7 +12868,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>48</v>
@@ -12882,7 +12888,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>307</v>
@@ -12902,7 +12908,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <f>EDATE(A371,1)</f>
         <v>41699</v>
@@ -12927,7 +12933,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>50</v>
@@ -12949,7 +12955,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>405</v>
@@ -12969,7 +12975,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A376,1)</f>
         <v>41730</v>
@@ -12994,7 +13000,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f t="shared" si="4"/>
         <v>41760</v>
@@ -13019,7 +13025,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>168</v>
@@ -13041,7 +13047,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>50</v>
@@ -13063,7 +13069,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>407</v>
@@ -13083,7 +13089,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <f>EDATE(A380,1)</f>
         <v>41791</v>
@@ -13108,7 +13114,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -13133,7 +13139,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -13158,7 +13164,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <f t="shared" si="4"/>
         <v>41883</v>
@@ -13183,7 +13189,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f t="shared" si="4"/>
         <v>41913</v>
@@ -13210,7 +13216,7 @@
         <v>41708</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>187</v>
@@ -13232,7 +13238,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>411</v>
@@ -13252,7 +13258,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>41944</v>
@@ -13279,7 +13285,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>317</v>
@@ -13299,7 +13305,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>41974</v>
@@ -13324,7 +13330,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
         <v>358</v>
       </c>
@@ -13346,7 +13352,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42005</v>
@@ -13373,7 +13379,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>421</v>
@@ -13393,7 +13399,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42036</v>
@@ -13418,7 +13424,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <f t="shared" si="4"/>
         <v>42064</v>
@@ -13445,7 +13451,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>351</v>
@@ -13465,7 +13471,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>423</v>
@@ -13485,7 +13491,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <f>EDATE(A398,1)</f>
         <v>42095</v>
@@ -13510,7 +13516,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f t="shared" si="4"/>
         <v>42125</v>
@@ -13535,7 +13541,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>424</v>
@@ -13555,7 +13561,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <f>EDATE(A402,1)</f>
         <v>42156</v>
@@ -13582,7 +13588,7 @@
         <v>42314</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>425</v>
@@ -13602,7 +13608,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f>EDATE(A404,1)</f>
         <v>42186</v>
@@ -13629,7 +13635,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>426</v>
@@ -13649,7 +13655,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <f>EDATE(A406,1)</f>
         <v>42217</v>
@@ -13674,7 +13680,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -13701,7 +13707,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>45</v>
@@ -13723,7 +13729,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>427</v>
@@ -13743,7 +13749,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42278</v>
@@ -13770,7 +13776,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>57</v>
@@ -13792,7 +13798,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>435</v>
@@ -13812,7 +13818,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <f>EDATE(A412,1)</f>
         <v>42309</v>
@@ -13837,7 +13843,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <f t="shared" si="4"/>
         <v>42339</v>
@@ -13862,7 +13868,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
         <v>357</v>
       </c>
@@ -13884,7 +13890,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f>EDATE(A416,1)</f>
         <v>42370</v>
@@ -13909,7 +13915,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <f t="shared" si="4"/>
         <v>42401</v>
@@ -13934,7 +13940,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <f t="shared" si="4"/>
         <v>42430</v>
@@ -13961,7 +13967,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>48</v>
@@ -13981,7 +13987,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>405</v>
@@ -14001,7 +14007,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <f>EDATE(A420,1)</f>
         <v>42461</v>
@@ -14026,7 +14032,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <f t="shared" si="4"/>
         <v>42491</v>
@@ -14051,7 +14057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>50</v>
@@ -14073,7 +14079,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>443</v>
@@ -14093,7 +14099,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <f>EDATE(A424,1)</f>
         <v>42522</v>
@@ -14118,7 +14124,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f t="shared" si="4"/>
         <v>42552</v>
@@ -14143,7 +14149,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -14168,7 +14174,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -14195,7 +14201,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>450</v>
@@ -14215,7 +14221,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="55"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>42644</v>
@@ -14242,7 +14248,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>50</v>
@@ -14264,7 +14270,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>57</v>
@@ -14286,7 +14292,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -14306,7 +14312,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>45</v>
@@ -14328,7 +14334,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>451</v>
@@ -14348,7 +14354,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f>EDATE(A432,1)</f>
         <v>42675</v>
@@ -14373,7 +14379,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -14398,7 +14404,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="48" t="s">
         <v>44</v>
       </c>
@@ -14420,7 +14426,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>42736</v>
       </c>
@@ -14446,7 +14452,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>46</v>
@@ -14466,7 +14472,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="49"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>42767</v>
       </c>
@@ -14490,7 +14496,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42795</v>
       </c>
@@ -14514,7 +14520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>45</v>
@@ -14536,7 +14542,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>50</v>
@@ -14558,7 +14564,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>50</v>
@@ -14580,7 +14586,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>51</v>
@@ -14600,7 +14606,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42826</v>
       </c>
@@ -14626,7 +14632,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>52</v>
@@ -14646,7 +14652,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="49"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42856</v>
       </c>
@@ -14672,7 +14678,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="15" t="s">
         <v>48</v>
@@ -14692,7 +14698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="15" t="s">
         <v>50</v>
@@ -14714,7 +14720,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="15" t="s">
         <v>53</v>
@@ -14734,7 +14740,7 @@
       <c r="J454" s="12"/>
       <c r="K454" s="15"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42887</v>
       </c>
@@ -14754,7 +14760,7 @@
       <c r="J455" s="12"/>
       <c r="K455" s="15"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>42917</v>
       </c>
@@ -14778,7 +14784,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42948</v>
       </c>
@@ -14804,7 +14810,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>52</v>
@@ -14824,7 +14830,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="49"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42979</v>
       </c>
@@ -14848,7 +14854,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43009</v>
       </c>
@@ -14874,7 +14880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>50</v>
@@ -14896,7 +14902,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>45</v>
@@ -14918,7 +14924,7 @@
         <v>43063</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>59</v>
@@ -14938,7 +14944,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43040</v>
       </c>
@@ -14962,7 +14968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43070</v>
       </c>
@@ -14982,7 +14988,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
         <v>61</v>
       </c>
@@ -15000,7 +15006,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43101</v>
       </c>
@@ -15020,7 +15026,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43132</v>
       </c>
@@ -15040,7 +15046,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43160</v>
       </c>
@@ -15060,7 +15066,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43191</v>
       </c>
@@ -15084,7 +15090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>50</v>
@@ -15106,7 +15112,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43221</v>
       </c>
@@ -15130,7 +15136,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43252</v>
       </c>
@@ -15154,7 +15160,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43282</v>
       </c>
@@ -15174,7 +15180,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43313</v>
       </c>
@@ -15198,7 +15204,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43344</v>
       </c>
@@ -15218,7 +15224,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43374</v>
       </c>
@@ -15244,7 +15250,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>66</v>
@@ -15266,7 +15272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -15286,7 +15292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>67</v>
@@ -15306,7 +15312,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43405</v>
       </c>
@@ -15332,7 +15338,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>70</v>
@@ -15352,7 +15358,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43435</v>
       </c>
@@ -15376,7 +15382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>50</v>
@@ -15398,7 +15404,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>71</v>
@@ -15418,7 +15424,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
         <v>74</v>
       </c>
@@ -15436,7 +15442,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43466</v>
       </c>
@@ -15456,7 +15462,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43497</v>
       </c>
@@ -15476,7 +15482,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43525</v>
       </c>
@@ -15496,7 +15502,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43556</v>
       </c>
@@ -15520,7 +15526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43586</v>
       </c>
@@ -15546,7 +15552,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>48</v>
@@ -15566,7 +15572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>66</v>
@@ -15588,7 +15594,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>50</v>
@@ -15609,7 +15615,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43617</v>
       </c>
@@ -15629,7 +15635,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43647</v>
       </c>
@@ -15655,7 +15661,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43678</v>
       </c>
@@ -15681,7 +15687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>50</v>
@@ -15703,7 +15709,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>45</v>
@@ -15725,7 +15731,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43709</v>
       </c>
@@ -15745,7 +15751,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43739</v>
       </c>
@@ -15771,7 +15777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43770</v>
       </c>
@@ -15797,7 +15803,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>50</v>
@@ -15819,7 +15825,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43800</v>
       </c>
@@ -15839,7 +15845,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="48" t="s">
         <v>81</v>
       </c>
@@ -15857,7 +15863,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43831</v>
       </c>
@@ -15883,7 +15889,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>82</v>
@@ -15903,7 +15909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>50</v>
@@ -15925,7 +15931,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43862</v>
       </c>
@@ -15945,7 +15951,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>43891</v>
       </c>
@@ -15971,7 +15977,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43922</v>
       </c>
@@ -15991,7 +15997,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43952</v>
       </c>
@@ -16011,7 +16017,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43983</v>
       </c>
@@ -16031,7 +16037,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44013</v>
       </c>
@@ -16055,7 +16061,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44044</v>
       </c>
@@ -16075,7 +16081,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44075</v>
       </c>
@@ -16095,7 +16101,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44105</v>
       </c>
@@ -16115,7 +16121,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44136</v>
       </c>
@@ -16135,7 +16141,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44166</v>
       </c>
@@ -16159,7 +16165,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
         <v>86</v>
       </c>
@@ -16177,7 +16183,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44197</v>
       </c>
@@ -16197,7 +16203,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44228</v>
       </c>
@@ -16217,7 +16223,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44256</v>
       </c>
@@ -16237,7 +16243,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44287</v>
       </c>
@@ -16257,7 +16263,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44317</v>
       </c>
@@ -16277,7 +16283,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44348</v>
       </c>
@@ -16297,7 +16303,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44378</v>
       </c>
@@ -16321,7 +16327,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44409</v>
       </c>
@@ -16341,7 +16347,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44440</v>
       </c>
@@ -16361,7 +16367,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44470</v>
       </c>
@@ -16387,7 +16393,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>57</v>
@@ -16409,7 +16415,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>48</v>
@@ -16429,7 +16435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44501</v>
       </c>
@@ -16449,7 +16455,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44531</v>
       </c>
@@ -16475,7 +16481,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
         <v>90</v>
       </c>
@@ -16493,7 +16499,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44562</v>
       </c>
@@ -16519,7 +16525,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44593</v>
       </c>
@@ -16539,7 +16545,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44621</v>
       </c>
@@ -16559,7 +16565,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44652</v>
       </c>
@@ -16583,7 +16589,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44682</v>
       </c>
@@ -16607,7 +16613,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44713</v>
       </c>
@@ -16631,7 +16637,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44743</v>
       </c>
@@ -16657,7 +16663,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16677,7 +16683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>469</v>
@@ -16697,7 +16703,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="49"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44774</v>
       </c>
@@ -16723,7 +16729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>468</v>
@@ -16743,7 +16749,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44805</v>
       </c>
@@ -16767,7 +16773,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44835</v>
       </c>
@@ -16793,7 +16799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>50</v>
@@ -16815,7 +16821,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>48</v>
@@ -16835,7 +16841,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>48</v>
@@ -16855,7 +16861,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>50</v>
@@ -16877,7 +16883,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>466</v>
@@ -16897,7 +16903,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="49"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44866</v>
       </c>
@@ -16923,7 +16929,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>92</v>
@@ -16945,7 +16951,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>57</v>
@@ -16967,7 +16973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>50</v>
@@ -16989,7 +16995,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>50</v>
@@ -17011,7 +17017,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>53</v>
@@ -17031,7 +17037,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="49"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44896</v>
       </c>
@@ -17057,7 +17063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>100</v>
@@ -17079,7 +17085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>104</v>
@@ -17101,7 +17107,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>129</v>
@@ -17121,7 +17127,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="48" t="s">
         <v>95</v>
       </c>
@@ -17139,7 +17145,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44927</v>
       </c>
@@ -17165,7 +17171,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44958</v>
       </c>
@@ -17191,7 +17197,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>50</v>
@@ -17213,7 +17219,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>111</v>
@@ -17235,7 +17241,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44986</v>
       </c>
@@ -17261,7 +17267,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>109</v>
@@ -17283,7 +17289,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45017</v>
       </c>
@@ -17309,7 +17315,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45047</v>
       </c>
@@ -17335,7 +17341,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>92</v>
@@ -17357,7 +17363,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>351</v>
@@ -17377,7 +17383,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45078</v>
       </c>
@@ -17403,7 +17409,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>50</v>
@@ -17425,7 +17431,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45108</v>
       </c>
@@ -17449,7 +17455,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45139</v>
       </c>
@@ -17475,7 +17481,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45170</v>
       </c>
@@ -17495,7 +17501,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45200</v>
       </c>
@@ -17521,7 +17527,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>48</v>
@@ -17541,7 +17547,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>233</v>
@@ -17563,7 +17569,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>50</v>
@@ -17585,151 +17591,147 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A584" s="40">
-        <v>45231</v>
-      </c>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C584" s="13">
-        <v>1.25</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="C584" s="13"/>
       <c r="D584" s="39">
-        <v>1</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="49">
-        <v>45237</v>
-      </c>
-    </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A585" s="40"/>
+      <c r="K584" s="49"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="40">
+        <v>45231</v>
+      </c>
       <c r="B585" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C585" s="13"/>
+      <c r="C585" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D585" s="39">
         <v>1</v>
       </c>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
-      <c r="G585" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G585" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
       <c r="K585" s="49">
-        <v>45254</v>
-      </c>
-    </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="C586" s="13"/>
-      <c r="D586" s="39"/>
+      <c r="D586" s="39">
+        <v>1</v>
+      </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
       <c r="G586" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H586" s="39">
-        <v>1</v>
-      </c>
+      <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="49">
-        <v>45246</v>
-      </c>
-    </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A587" s="40">
-        <v>45261</v>
-      </c>
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C587" s="13">
-        <v>1.25</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C587" s="13"/>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H587" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="20" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K587" s="49">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
-        <v>50</v>
+        <v>481</v>
       </c>
       <c r="C588" s="13"/>
-      <c r="D588" s="39"/>
+      <c r="D588" s="39">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
       <c r="G588" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H588" s="39">
-        <v>1</v>
-      </c>
+      <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="49">
-        <v>45274</v>
-      </c>
-    </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A589" s="40"/>
+      <c r="K588" s="49"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="40">
+        <v>45261</v>
+      </c>
       <c r="B589" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C589" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H589" s="39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="49" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A590" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="B590" s="20"/>
+      <c r="K589" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40"/>
+      <c r="B590" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C590" s="13"/>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
@@ -17738,17 +17740,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H590" s="39"/>
+      <c r="H590" s="39">
+        <v>1</v>
+      </c>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="20"/>
-    </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A591" s="40">
-        <v>45322</v>
-      </c>
+      <c r="K590" s="49">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
@@ -17759,17 +17763,17 @@
         <v/>
       </c>
       <c r="H591" s="39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="49">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A592" s="40">
-        <v>45351</v>
+      <c r="K591" s="49" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="48" t="s">
+        <v>478</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -17785,11 +17789,13 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B593" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B593" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C593" s="13"/>
       <c r="D593" s="39"/>
       <c r="E593" s="9"/>
@@ -17798,14 +17804,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H593" s="39"/>
+      <c r="H593" s="39">
+        <v>1</v>
+      </c>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20"/>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K593" s="49">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17821,9 +17831,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17839,9 +17849,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17857,9 +17867,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17875,9 +17885,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17893,9 +17903,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17911,9 +17921,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17929,9 +17939,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17947,9 +17957,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17965,9 +17975,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17983,9 +17993,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -18001,9 +18011,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -18019,9 +18029,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -18037,9 +18047,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -18055,9 +18065,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -18073,9 +18083,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -18091,9 +18101,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -18109,9 +18119,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -18127,9 +18137,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -18145,9 +18155,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -18163,9 +18173,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -18181,9 +18191,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -18199,9 +18209,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -18217,9 +18227,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -18235,9 +18245,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -18253,8 +18263,10 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A619" s="40"/>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="40">
+        <v>46112</v>
+      </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
       <c r="D619" s="39"/>
@@ -18269,8 +18281,10 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A620" s="40"/>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" s="40">
+        <v>46142</v>
+      </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
       <c r="D620" s="39"/>
@@ -18285,7 +18299,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -18301,7 +18315,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -18317,7 +18331,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -18333,7 +18347,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -18349,7 +18363,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -18365,21 +18379,53 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A626" s="41"/>
-      <c r="B626" s="15"/>
-      <c r="C626" s="42"/>
-      <c r="D626" s="43"/>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="40"/>
+      <c r="B626" s="20"/>
+      <c r="C626" s="13"/>
+      <c r="D626" s="39"/>
       <c r="E626" s="9"/>
-      <c r="F626" s="15"/>
-      <c r="G626" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H626" s="43"/>
+      <c r="F626" s="20"/>
+      <c r="G626" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H626" s="39"/>
       <c r="I626" s="9"/>
-      <c r="J626" s="12"/>
-      <c r="K626" s="15"/>
+      <c r="J626" s="11"/>
+      <c r="K626" s="20"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" s="40"/>
+      <c r="B627" s="20"/>
+      <c r="C627" s="13"/>
+      <c r="D627" s="39"/>
+      <c r="E627" s="9"/>
+      <c r="F627" s="20"/>
+      <c r="G627" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H627" s="39"/>
+      <c r="I627" s="9"/>
+      <c r="J627" s="11"/>
+      <c r="K627" s="20"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A628" s="41"/>
+      <c r="B628" s="15"/>
+      <c r="C628" s="42"/>
+      <c r="D628" s="43"/>
+      <c r="E628" s="9"/>
+      <c r="F628" s="15"/>
+      <c r="G628" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H628" s="43"/>
+      <c r="I628" s="9"/>
+      <c r="J628" s="12"/>
+      <c r="K628" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18396,10 +18442,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18422,7 +18468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18430,21 +18476,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -18457,7 +18503,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18486,21 +18532,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.10400000000000001</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -18512,17 +18556,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18543,7 +18587,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18570,7 +18614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18596,7 +18640,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18622,7 +18666,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18648,7 +18692,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18674,7 +18718,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18700,7 +18744,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18726,7 +18770,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18752,7 +18796,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18772,7 +18816,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18792,7 +18836,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18812,7 +18856,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18833,7 +18877,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18854,7 +18898,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18875,7 +18919,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18896,7 +18940,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18917,7 +18961,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18938,7 +18982,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18959,7 +19003,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18980,7 +19024,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19001,7 +19045,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19022,7 +19066,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19043,7 +19087,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19064,7 +19108,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19085,7 +19129,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19106,7 +19150,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19127,7 +19171,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19148,7 +19192,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19169,7 +19213,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19190,7 +19234,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19211,7 +19255,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19232,7 +19276,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19241,7 +19285,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19250,7 +19294,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19259,7 +19303,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19268,7 +19312,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19277,7 +19321,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19286,7 +19330,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19295,7 +19339,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19304,7 +19348,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19313,7 +19357,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19322,7 +19366,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19331,7 +19375,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19340,7 +19384,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19349,7 +19393,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19358,7 +19402,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19367,7 +19411,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19376,7 +19420,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19385,7 +19429,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19394,7 +19438,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19403,7 +19447,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19412,7 +19456,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19421,7 +19465,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19430,7 +19474,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19439,7 +19483,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19448,7 +19492,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19457,7 +19501,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19466,7 +19510,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19475,7 +19519,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19484,7 +19528,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19493,7 +19537,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="491">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1483,6 +1483,30 @@
   </si>
   <si>
     <t>UT(0-0-52)</t>
+  </si>
+  <si>
+    <t>A(7-0-0)</t>
+  </si>
+  <si>
+    <t>6/20,22,23,26,27,29,30/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-30)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/6,7,10/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0- 7)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>1/3-6/2023</t>
   </si>
 </sst>
 </file>
@@ -3901,8 +3925,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K628" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K628"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K635" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K635"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4280,12 +4304,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K628"/>
+  <dimension ref="A2:K635"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A578" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="E600" sqref="E600"/>
+      <selection pane="bottomLeft" activeCell="F573" sqref="F573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,7 +4470,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>110.82600000000008</v>
+        <v>96.699000000000069</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -17172,105 +17196,99 @@
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C566" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D566" s="39"/>
+        <v>489</v>
+      </c>
+      <c r="C566" s="13"/>
+      <c r="D566" s="39">
+        <v>4</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H566" s="39">
-        <v>19</v>
-      </c>
+      <c r="G566" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
       <c r="K566" s="20" t="s">
-        <v>103</v>
+        <v>490</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="C567" s="13"/>
-      <c r="D567" s="39"/>
+      <c r="D567" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
       <c r="G567" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H567" s="39">
-        <v>1</v>
-      </c>
+      <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="49">
-        <v>44977</v>
-      </c>
+      <c r="K567" s="20"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40"/>
+      <c r="A568" s="40">
+        <v>44958</v>
+      </c>
       <c r="B568" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C568" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="49" t="s">
-        <v>112</v>
+      <c r="K568" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C569" s="13">
-        <v>1.25</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C569" s="13"/>
       <c r="D569" s="39"/>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H569" s="39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20" t="s">
-        <v>108</v>
+      <c r="K569" s="49">
+        <v>44977</v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C570" s="13"/>
       <c r="D570" s="39"/>
@@ -17281,46 +17299,40 @@
         <v/>
       </c>
       <c r="H570" s="39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20" t="s">
-        <v>110</v>
+      <c r="K570" s="49" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="C571" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D571" s="39"/>
+        <v>488</v>
+      </c>
+      <c r="C571" s="13"/>
+      <c r="D571" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H571" s="39">
-        <v>22</v>
-      </c>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="20" t="s">
-        <v>460</v>
-      </c>
+      <c r="K571" s="49"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B572" s="20" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C572" s="13">
         <v>1.25</v>
@@ -17333,18 +17345,18 @@
         <v>1.25</v>
       </c>
       <c r="H572" s="39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
       <c r="K572" s="20" t="s">
-        <v>462</v>
+        <v>108</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
@@ -17355,146 +17367,144 @@
         <v/>
       </c>
       <c r="H573" s="39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
       <c r="K573" s="20" t="s">
-        <v>463</v>
+        <v>110</v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
+      <c r="A574" s="40">
+        <v>45017</v>
+      </c>
       <c r="B574" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C574" s="13"/>
+        <v>459</v>
+      </c>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H574" s="39"/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H574" s="39">
+        <v>22</v>
+      </c>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
       <c r="K574" s="20" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C575" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D575" s="39"/>
+        <v>486</v>
+      </c>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39">
+        <v>3</v>
+      </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H575" s="39">
-        <v>2</v>
-      </c>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
       <c r="K575" s="20" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <v>45047</v>
+      </c>
       <c r="B576" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C576" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D576" s="39"/>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H576" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="49">
-        <v>45092</v>
+      <c r="K576" s="20" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="C577" s="13">
-        <v>1.25</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C577" s="13"/>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H577" s="39"/>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="39">
+        <v>2</v>
+      </c>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
       <c r="K577" s="20" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="C578" s="13">
-        <v>1.25</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C578" s="13"/>
       <c r="D578" s="39"/>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H578" s="39">
-        <v>28</v>
-      </c>
+      <c r="G578" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
       <c r="K578" s="20" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B579" s="20"/>
-      <c r="C579" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D579" s="39"/>
+      <c r="A579" s="40"/>
+      <c r="B579" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C579" s="13"/>
+      <c r="D579" s="39">
+        <v>6.200000000000002E-2</v>
+      </c>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
@@ -17503,10 +17513,10 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="B580" s="20" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C580" s="13">
         <v>1.25</v>
@@ -17519,18 +17529,18 @@
         <v>1.25</v>
       </c>
       <c r="H580" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="49">
-        <v>45205</v>
+      <c r="K580" s="20" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
@@ -17540,21 +17550,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H581" s="39"/>
+      <c r="H581" s="39">
+        <v>1</v>
+      </c>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
       <c r="K581" s="49">
-        <v>45216</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
-        <v>233</v>
+        <v>483</v>
       </c>
       <c r="C582" s="13"/>
       <c r="D582" s="39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
@@ -17566,111 +17578,115 @@
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
       <c r="K582" s="49" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
-        <v>50</v>
+        <v>466</v>
       </c>
       <c r="C583" s="13"/>
-      <c r="D583" s="39"/>
+      <c r="D583" s="39">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
       <c r="G583" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H583" s="39">
-        <v>1</v>
-      </c>
+      <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="49">
-        <v>45209</v>
-      </c>
+      <c r="K583" s="49"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40"/>
+      <c r="A584" s="40">
+        <v>45108</v>
+      </c>
       <c r="B584" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="C584" s="13"/>
-      <c r="D584" s="39">
-        <v>0.10800000000000001</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D584" s="39"/>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="49"/>
+      <c r="K584" s="20" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B585" s="20" t="s">
-        <v>168</v>
+        <v>475</v>
       </c>
       <c r="C585" s="13">
         <v>1.25</v>
       </c>
-      <c r="D585" s="39">
-        <v>1</v>
-      </c>
+      <c r="D585" s="39"/>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
       <c r="G585" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H585" s="39"/>
+      <c r="H585" s="39">
+        <v>28</v>
+      </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="49">
-        <v>45237</v>
+      <c r="K585" s="20" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40"/>
-      <c r="B586" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C586" s="13"/>
-      <c r="D586" s="39">
-        <v>1</v>
-      </c>
+      <c r="A586" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="49">
-        <v>45254</v>
-      </c>
+      <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40"/>
+      <c r="A587" s="40">
+        <v>45200</v>
+      </c>
       <c r="B587" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C587" s="13"/>
+      <c r="C587" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G587" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H587" s="39">
         <v>1</v>
@@ -17678,18 +17694,16 @@
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
       <c r="K587" s="49">
-        <v>45246</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
-        <v>481</v>
+        <v>48</v>
       </c>
       <c r="C588" s="13"/>
-      <c r="D588" s="39">
-        <v>0.57299999999999995</v>
-      </c>
+      <c r="D588" s="39"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
       <c r="G588" s="13" t="str">
@@ -17699,32 +17713,30 @@
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="49"/>
+      <c r="K588" s="49">
+        <v>45216</v>
+      </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C589" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D589" s="39"/>
+        <v>233</v>
+      </c>
+      <c r="C589" s="13"/>
+      <c r="D589" s="39">
+        <v>3</v>
+      </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H589" s="39">
-        <v>2</v>
-      </c>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20" t="s">
-        <v>479</v>
+      <c r="K589" s="49" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
@@ -17746,78 +17758,82 @@
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
       <c r="K590" s="49">
-        <v>45274</v>
+        <v>45209</v>
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
-        <v>104</v>
+        <v>482</v>
       </c>
       <c r="C591" s="13"/>
-      <c r="D591" s="39"/>
+      <c r="D591" s="39">
+        <v>0.10800000000000001</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
       <c r="G591" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H591" s="39">
-        <v>6</v>
-      </c>
+      <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="49" t="s">
-        <v>480</v>
-      </c>
+      <c r="K591" s="49"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="B592" s="20"/>
-      <c r="C592" s="13"/>
-      <c r="D592" s="39"/>
+      <c r="A592" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B592" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D592" s="39">
+        <v>1</v>
+      </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
+      <c r="K592" s="49">
+        <v>45237</v>
+      </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A593" s="40">
-        <v>45322</v>
-      </c>
+      <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="C593" s="13"/>
-      <c r="D593" s="39"/>
+      <c r="D593" s="39">
+        <v>1</v>
+      </c>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
       <c r="G593" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H593" s="39">
-        <v>1</v>
-      </c>
+      <c r="H593" s="39"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
       <c r="K593" s="49">
-        <v>45295</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B594" s="20"/>
+      <c r="A594" s="40"/>
+      <c r="B594" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C594" s="13"/>
       <c r="D594" s="39"/>
       <c r="E594" s="9"/>
@@ -17826,18 +17842,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H594" s="39"/>
+      <c r="H594" s="39">
+        <v>1</v>
+      </c>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
+      <c r="K594" s="49">
+        <v>45246</v>
+      </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B595" s="20"/>
+      <c r="A595" s="40"/>
+      <c r="B595" s="20" t="s">
+        <v>481</v>
+      </c>
       <c r="C595" s="13"/>
-      <c r="D595" s="39"/>
+      <c r="D595" s="39">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
       <c r="G595" s="13" t="str">
@@ -17847,31 +17869,39 @@
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="49"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45412</v>
-      </c>
-      <c r="B596" s="20"/>
-      <c r="C596" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B596" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C596" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D596" s="39"/>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H596" s="39"/>
+      <c r="G596" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H596" s="39">
+        <v>2</v>
+      </c>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="20"/>
+      <c r="K596" s="20" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="40">
-        <v>45443</v>
-      </c>
-      <c r="B597" s="20"/>
+      <c r="A597" s="40"/>
+      <c r="B597" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C597" s="13"/>
       <c r="D597" s="39"/>
       <c r="E597" s="9"/>
@@ -17880,16 +17910,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H597" s="39"/>
+      <c r="H597" s="39">
+        <v>1</v>
+      </c>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
+      <c r="K597" s="49">
+        <v>45274</v>
+      </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="40">
-        <v>45473</v>
-      </c>
-      <c r="B598" s="20"/>
+      <c r="A598" s="40"/>
+      <c r="B598" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C598" s="13"/>
       <c r="D598" s="39"/>
       <c r="E598" s="9"/>
@@ -17898,14 +17932,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H598" s="39"/>
+      <c r="H598" s="39">
+        <v>6</v>
+      </c>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="20"/>
+      <c r="K598" s="49" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A599" s="40">
-        <v>45504</v>
+      <c r="A599" s="48" t="s">
+        <v>478</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17923,9 +17961,11 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45535</v>
-      </c>
-      <c r="B600" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B600" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C600" s="13"/>
       <c r="D600" s="39"/>
       <c r="E600" s="9"/>
@@ -17934,14 +17974,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H600" s="39"/>
+      <c r="H600" s="39">
+        <v>1</v>
+      </c>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="20"/>
+      <c r="K600" s="49">
+        <v>45295</v>
+      </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45565</v>
+        <v>45351</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17959,7 +18003,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45596</v>
+        <v>45382</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17977,7 +18021,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45626</v>
+        <v>45412</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17995,7 +18039,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45657</v>
+        <v>45443</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -18013,7 +18057,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45688</v>
+        <v>45473</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -18031,7 +18075,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45716</v>
+        <v>45504</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -18049,7 +18093,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45747</v>
+        <v>45535</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -18067,7 +18111,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45777</v>
+        <v>45565</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -18085,7 +18129,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45808</v>
+        <v>45596</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -18103,7 +18147,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45838</v>
+        <v>45626</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -18121,7 +18165,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45869</v>
+        <v>45657</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -18139,7 +18183,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45900</v>
+        <v>45688</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -18157,7 +18201,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45930</v>
+        <v>45716</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -18175,7 +18219,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45961</v>
+        <v>45747</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -18193,7 +18237,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45991</v>
+        <v>45777</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -18211,7 +18255,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46022</v>
+        <v>45808</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -18229,7 +18273,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46053</v>
+        <v>45838</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -18247,7 +18291,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46081</v>
+        <v>45869</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -18265,7 +18309,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46112</v>
+        <v>45900</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -18283,7 +18327,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46142</v>
+        <v>45930</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -18300,7 +18344,9 @@
       <c r="K620" s="20"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A621" s="40"/>
+      <c r="A621" s="40">
+        <v>45961</v>
+      </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
       <c r="D621" s="39"/>
@@ -18316,7 +18362,9 @@
       <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A622" s="40"/>
+      <c r="A622" s="40">
+        <v>45991</v>
+      </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
       <c r="D622" s="39"/>
@@ -18332,7 +18380,9 @@
       <c r="K622" s="20"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A623" s="40"/>
+      <c r="A623" s="40">
+        <v>46022</v>
+      </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
@@ -18348,7 +18398,9 @@
       <c r="K623" s="20"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A624" s="40"/>
+      <c r="A624" s="40">
+        <v>46053</v>
+      </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
       <c r="D624" s="39"/>
@@ -18364,7 +18416,9 @@
       <c r="K624" s="20"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A625" s="40"/>
+      <c r="A625" s="40">
+        <v>46081</v>
+      </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
       <c r="D625" s="39"/>
@@ -18380,7 +18434,9 @@
       <c r="K625" s="20"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A626" s="40"/>
+      <c r="A626" s="40">
+        <v>46112</v>
+      </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
       <c r="D626" s="39"/>
@@ -18396,7 +18452,9 @@
       <c r="K626" s="20"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A627" s="40"/>
+      <c r="A627" s="40">
+        <v>46142</v>
+      </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
       <c r="D627" s="39"/>
@@ -18412,20 +18470,132 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="41"/>
-      <c r="B628" s="15"/>
-      <c r="C628" s="42"/>
-      <c r="D628" s="43"/>
+      <c r="A628" s="40"/>
+      <c r="B628" s="20"/>
+      <c r="C628" s="13"/>
+      <c r="D628" s="39"/>
       <c r="E628" s="9"/>
-      <c r="F628" s="15"/>
-      <c r="G628" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H628" s="43"/>
+      <c r="F628" s="20"/>
+      <c r="G628" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H628" s="39"/>
       <c r="I628" s="9"/>
-      <c r="J628" s="12"/>
-      <c r="K628" s="15"/>
+      <c r="J628" s="11"/>
+      <c r="K628" s="20"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" s="40"/>
+      <c r="B629" s="20"/>
+      <c r="C629" s="13"/>
+      <c r="D629" s="39"/>
+      <c r="E629" s="9"/>
+      <c r="F629" s="20"/>
+      <c r="G629" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H629" s="39"/>
+      <c r="I629" s="9"/>
+      <c r="J629" s="11"/>
+      <c r="K629" s="20"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A630" s="40"/>
+      <c r="B630" s="20"/>
+      <c r="C630" s="13"/>
+      <c r="D630" s="39"/>
+      <c r="E630" s="9"/>
+      <c r="F630" s="20"/>
+      <c r="G630" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H630" s="39"/>
+      <c r="I630" s="9"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="20"/>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631" s="40"/>
+      <c r="B631" s="20"/>
+      <c r="C631" s="13"/>
+      <c r="D631" s="39"/>
+      <c r="E631" s="9"/>
+      <c r="F631" s="20"/>
+      <c r="G631" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H631" s="39"/>
+      <c r="I631" s="9"/>
+      <c r="J631" s="11"/>
+      <c r="K631" s="20"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" s="40"/>
+      <c r="B632" s="20"/>
+      <c r="C632" s="13"/>
+      <c r="D632" s="39"/>
+      <c r="E632" s="9"/>
+      <c r="F632" s="20"/>
+      <c r="G632" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H632" s="39"/>
+      <c r="I632" s="9"/>
+      <c r="J632" s="11"/>
+      <c r="K632" s="20"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633" s="40"/>
+      <c r="B633" s="20"/>
+      <c r="C633" s="13"/>
+      <c r="D633" s="39"/>
+      <c r="E633" s="9"/>
+      <c r="F633" s="20"/>
+      <c r="G633" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H633" s="39"/>
+      <c r="I633" s="9"/>
+      <c r="J633" s="11"/>
+      <c r="K633" s="20"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="40"/>
+      <c r="B634" s="20"/>
+      <c r="C634" s="13"/>
+      <c r="D634" s="39"/>
+      <c r="E634" s="9"/>
+      <c r="F634" s="20"/>
+      <c r="G634" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H634" s="39"/>
+      <c r="I634" s="9"/>
+      <c r="J634" s="11"/>
+      <c r="K634" s="20"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="41"/>
+      <c r="B635" s="15"/>
+      <c r="C635" s="42"/>
+      <c r="D635" s="43"/>
+      <c r="E635" s="9"/>
+      <c r="F635" s="15"/>
+      <c r="G635" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H635" s="43"/>
+      <c r="I635" s="9"/>
+      <c r="J635" s="12"/>
+      <c r="K635" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18535,16 +18705,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.10800000000000001</v>
+        <v>1.9000000000000003E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="491">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2557,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2623,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2686,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2784,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2843,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,7 +2908,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2951,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3026,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,7 +3212,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3278,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3336,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3402,7 +3402,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3458,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,7 +3533,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3576,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3642,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3698,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3796,7 +3796,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3859,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3925,8 +3925,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K635" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K635"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K636" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K636"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4304,12 +4304,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K635"/>
+  <dimension ref="A2:K636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A557" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A584" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="F573" sqref="F573"/>
+      <selection pane="bottomLeft" activeCell="G595" sqref="G595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,7 +4480,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14.125</v>
+        <v>13.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17984,10 +17984,10 @@
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B601" s="20"/>
+      <c r="A601" s="40"/>
+      <c r="B601" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C601" s="13"/>
       <c r="D601" s="39"/>
       <c r="E601" s="9"/>
@@ -17996,14 +17996,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H601" s="39"/>
+      <c r="H601" s="39">
+        <v>1</v>
+      </c>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
+      <c r="K601" s="49">
+        <v>45307</v>
+      </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -18021,7 +18025,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -18039,7 +18043,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -18057,7 +18061,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -18075,7 +18079,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -18093,7 +18097,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -18111,7 +18115,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -18129,7 +18133,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -18147,7 +18151,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -18165,7 +18169,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -18183,7 +18187,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -18201,7 +18205,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -18219,7 +18223,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -18237,7 +18241,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -18255,7 +18259,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -18273,7 +18277,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -18291,7 +18295,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -18309,7 +18313,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -18327,7 +18331,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -18345,7 +18349,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -18363,7 +18367,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -18381,7 +18385,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -18399,7 +18403,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -18417,7 +18421,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -18435,7 +18439,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -18453,7 +18457,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -18470,7 +18474,9 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40"/>
+      <c r="A628" s="40">
+        <v>46142</v>
+      </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
       <c r="D628" s="39"/>
@@ -18582,20 +18588,36 @@
       <c r="K634" s="20"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="41"/>
-      <c r="B635" s="15"/>
-      <c r="C635" s="42"/>
-      <c r="D635" s="43"/>
+      <c r="A635" s="40"/>
+      <c r="B635" s="20"/>
+      <c r="C635" s="13"/>
+      <c r="D635" s="39"/>
       <c r="E635" s="9"/>
-      <c r="F635" s="15"/>
-      <c r="G635" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H635" s="43"/>
+      <c r="F635" s="20"/>
+      <c r="G635" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H635" s="39"/>
       <c r="I635" s="9"/>
-      <c r="J635" s="12"/>
-      <c r="K635" s="15"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="20"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="41"/>
+      <c r="B636" s="15"/>
+      <c r="C636" s="42"/>
+      <c r="D636" s="43"/>
+      <c r="E636" s="9"/>
+      <c r="F636" s="15"/>
+      <c r="G636" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="43"/>
+      <c r="I636" s="9"/>
+      <c r="J636" s="12"/>
+      <c r="K636" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B17CD2-6797-47BE-B5BA-1656B0A8AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="491">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1512,7 +1513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2390,7 +2391,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2434,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2498,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2558,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2624,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2687,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2785,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2844,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,7 +2909,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2952,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3027,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,7 +3213,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3279,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3337,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3402,7 +3403,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3459,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,7 +3534,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3577,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3643,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3699,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3796,7 +3797,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3860,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3908,7 +3909,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3925,26 +3926,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K636" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K636"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K637" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K637" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3956,13 +3957,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3971,14 +3972,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4282,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4292,7 +4293,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4300,34 +4301,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K636"/>
+  <dimension ref="A2:K637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A584" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A596" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="G595" sqref="G595"/>
+      <selection pane="bottomLeft" activeCell="B603" sqref="B603"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4348,7 +4349,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4366,7 +4367,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4388,7 +4389,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4396,7 +4397,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4409,7 +4410,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4426,7 +4427,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4470,7 +4471,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>96.699000000000069</v>
+        <v>97.949000000000069</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4480,12 +4481,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>13.125</v>
+        <v>13.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>113</v>
       </c>
@@ -4503,7 +4504,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
@@ -4523,7 +4524,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>115</v>
       </c>
@@ -4543,7 +4544,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>116</v>
       </c>
@@ -4567,7 +4568,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>117</v>
       </c>
@@ -4585,7 +4586,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>35796</v>
       </c>
@@ -4609,7 +4610,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f>EDATE(A15,1)</f>
         <v>35827</v>
@@ -4634,7 +4635,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" ref="A17:A27" si="0">EDATE(A16,1)</f>
         <v>35855</v>
@@ -4659,7 +4660,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4684,7 +4685,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4705,7 +4706,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>35947</v>
@@ -4730,7 +4731,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>85</v>
@@ -4750,7 +4751,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f>EDATE(A20,1)</f>
         <v>35977</v>
@@ -4775,7 +4776,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4800,7 +4801,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4827,7 +4828,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>132</v>
@@ -4847,7 +4848,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36069</v>
@@ -4874,7 +4875,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -4895,7 +4896,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f>EDATE(A27,1)</f>
         <v>36130</v>
@@ -4922,7 +4923,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>118</v>
       </c>
@@ -4944,7 +4945,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f>EDATE(A28,1)</f>
         <v>36161</v>
@@ -4965,7 +4966,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" ref="A31:A110" si="1">EDATE(A30,1)</f>
         <v>36192</v>
@@ -4986,7 +4987,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>36220</v>
@@ -5007,7 +5008,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -5028,7 +5029,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -5055,7 +5056,7 @@
         <v>36285</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>92</v>
@@ -5077,7 +5078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>136</v>
@@ -5099,7 +5100,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A34,1)</f>
         <v>36312</v>
@@ -5120,7 +5121,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -5141,7 +5142,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -5162,7 +5163,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -5183,7 +5184,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -5214,7 +5215,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -5241,7 +5242,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -5268,7 +5269,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>57</v>
@@ -5290,7 +5291,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>119</v>
       </c>
@@ -5312,7 +5313,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f>EDATE(A43,1)</f>
         <v>36526</v>
@@ -5333,7 +5334,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" si="1"/>
         <v>36557</v>
@@ -5354,7 +5355,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="1"/>
         <v>36586</v>
@@ -5377,7 +5378,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="1"/>
         <v>36617</v>
@@ -5400,7 +5401,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -5421,7 +5422,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -5442,7 +5443,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -5463,7 +5464,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -5484,7 +5485,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -5505,7 +5506,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -5532,7 +5533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A55,1)</f>
         <v>36831</v>
@@ -5559,7 +5560,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -5582,7 +5583,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>120</v>
       </c>
@@ -5604,7 +5605,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>36892</v>
@@ -5625,7 +5626,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" si="1"/>
         <v>36923</v>
@@ -5646,7 +5647,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5673,7 +5674,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5691,7 +5692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5709,7 +5710,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f>EDATE(A61,1)</f>
         <v>36982</v>
@@ -5730,7 +5731,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5751,7 +5752,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5772,7 +5773,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5793,7 +5794,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -5814,7 +5815,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -5835,7 +5836,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -5862,7 +5863,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>92</v>
@@ -5884,7 +5885,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f>EDATE(A70,1)</f>
         <v>37196</v>
@@ -5911,7 +5912,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="1"/>
         <v>37226</v>
@@ -5932,7 +5933,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>121</v>
       </c>
@@ -5954,7 +5955,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f>EDATE(A73,1)</f>
         <v>37257</v>
@@ -5975,7 +5976,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -5996,7 +5997,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -6023,7 +6024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -6046,7 +6047,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6073,7 +6074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -6100,7 +6101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>92</v>
@@ -6122,7 +6123,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>37438</v>
@@ -6149,7 +6150,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>137</v>
@@ -6171,7 +6172,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>92</v>
@@ -6193,7 +6194,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f>EDATE(A82,1)</f>
         <v>37469</v>
@@ -6214,7 +6215,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -6235,7 +6236,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -6262,7 +6263,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>156</v>
@@ -6284,7 +6285,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>37561</v>
@@ -6311,7 +6312,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -6334,7 +6335,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>122</v>
       </c>
@@ -6356,7 +6357,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>37622</v>
@@ -6377,7 +6378,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -6398,7 +6399,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -6419,7 +6420,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>37712</v>
@@ -6440,7 +6441,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -6463,7 +6464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -6484,7 +6485,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -6511,7 +6512,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>167</v>
@@ -6531,7 +6532,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>37834</v>
@@ -6556,7 +6557,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6577,7 +6578,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6604,7 +6605,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6622,7 +6623,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>37926</v>
@@ -6645,7 +6646,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6672,7 +6673,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>168</v>
@@ -6692,7 +6693,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>123</v>
       </c>
@@ -6714,7 +6715,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <f>EDATE(A105,1)</f>
         <v>37987</v>
@@ -6735,7 +6736,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6762,7 +6763,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -6783,7 +6784,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f t="shared" ref="A111:A213" si="2">EDATE(A110,1)</f>
         <v>38078</v>
@@ -6804,7 +6805,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f t="shared" si="2"/>
         <v>38108</v>
@@ -6831,7 +6832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" si="2"/>
         <v>38139</v>
@@ -6852,7 +6853,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -6879,7 +6880,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f t="shared" si="2"/>
         <v>38200</v>
@@ -6906,7 +6907,7 @@
         <v>37872</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f t="shared" si="2"/>
         <v>38231</v>
@@ -6927,7 +6928,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f t="shared" si="2"/>
         <v>38261</v>
@@ -6954,7 +6955,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <f t="shared" si="2"/>
         <v>38292</v>
@@ -6981,7 +6982,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f t="shared" si="2"/>
         <v>38322</v>
@@ -7008,7 +7009,7 @@
         <v>37906</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>48</v>
@@ -7028,7 +7029,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>182</v>
@@ -7050,7 +7051,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>124</v>
       </c>
@@ -7072,7 +7073,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="54"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f>EDATE(A119,1)</f>
         <v>38353</v>
@@ -7099,7 +7100,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f t="shared" si="2"/>
         <v>38384</v>
@@ -7124,7 +7125,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -7151,7 +7152,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7169,7 +7170,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>156</v>
@@ -7191,7 +7192,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>184</v>
@@ -7211,7 +7212,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f>EDATE(A125,1)</f>
         <v>38443</v>
@@ -7232,7 +7233,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -7259,7 +7260,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>92</v>
@@ -7281,7 +7282,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <f>EDATE(A130,1)</f>
         <v>38504</v>
@@ -7308,7 +7309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -7333,7 +7334,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -7358,7 +7359,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -7385,7 +7386,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -7406,7 +7407,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -7433,7 +7434,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -7460,7 +7461,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>48</v>
@@ -7480,7 +7481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>168</v>
@@ -7502,7 +7503,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>194</v>
       </c>
@@ -7524,7 +7525,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f>EDATE(A138,1)</f>
         <v>38718</v>
@@ -7551,7 +7552,7 @@
         <v>38838</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>50</v>
@@ -7573,7 +7574,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EDATE(A142,1)</f>
         <v>38749</v>
@@ -7600,7 +7601,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -7625,7 +7626,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -7650,7 +7651,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -7671,7 +7672,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -7696,7 +7697,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -7723,7 +7724,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>85</v>
@@ -7745,7 +7746,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>205</v>
@@ -7765,7 +7766,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f>EDATE(A149,1)</f>
         <v>38930</v>
@@ -7790,7 +7791,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -7817,7 +7818,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>213</v>
@@ -7837,7 +7838,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>38991</v>
@@ -7864,7 +7865,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -7891,7 +7892,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>48</v>
@@ -7911,7 +7912,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>214</v>
@@ -7931,7 +7932,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A156,1)</f>
         <v>39052</v>
@@ -7958,7 +7959,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>92</v>
@@ -7980,7 +7981,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="48" t="s">
         <v>193</v>
       </c>
@@ -8002,7 +8003,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A159,1)</f>
         <v>39083</v>
@@ -8029,7 +8030,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -8051,7 +8052,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>219</v>
@@ -8071,7 +8072,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f>EDATE(A162,1)</f>
         <v>39114</v>
@@ -8096,7 +8097,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -8123,7 +8124,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>50</v>
@@ -8145,7 +8146,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>137</v>
@@ -8167,7 +8168,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>50</v>
@@ -8189,7 +8190,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>222</v>
@@ -8209,7 +8210,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f>EDATE(A166,1)</f>
         <v>39173</v>
@@ -8236,7 +8237,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>92</v>
@@ -8258,7 +8259,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>85</v>
@@ -8280,7 +8281,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -8298,7 +8299,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>229</v>
@@ -8318,7 +8319,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <f>EDATE(A171,1)</f>
         <v>39203</v>
@@ -8345,7 +8346,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>92</v>
@@ -8367,7 +8368,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>230</v>
@@ -8387,7 +8388,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A176,1)</f>
         <v>39234</v>
@@ -8414,7 +8415,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>50</v>
@@ -8436,7 +8437,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>231</v>
@@ -8456,7 +8457,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f>EDATE(A179,1)</f>
         <v>39264</v>
@@ -8483,7 +8484,7 @@
         <v>39179</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>50</v>
@@ -8505,7 +8506,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>232</v>
@@ -8525,7 +8526,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <f>EDATE(A182,1)</f>
         <v>39295</v>
@@ -8550,7 +8551,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -8577,7 +8578,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>187</v>
@@ -8599,7 +8600,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <f>EDATE(A186,1)</f>
         <v>39356</v>
@@ -8626,7 +8627,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>233</v>
@@ -8648,7 +8649,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>234</v>
@@ -8668,7 +8669,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A188,1)</f>
         <v>39387</v>
@@ -8693,7 +8694,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -8720,7 +8721,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>48</v>
@@ -8740,7 +8741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>247</v>
@@ -8760,7 +8761,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="48" t="s">
         <v>192</v>
       </c>
@@ -8782,7 +8783,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>39448</v>
@@ -8809,7 +8810,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>187</v>
@@ -8831,7 +8832,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>250</v>
@@ -8851,7 +8852,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>39479</v>
@@ -8878,7 +8879,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>50</v>
@@ -8900,7 +8901,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>251</v>
@@ -8920,7 +8921,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39508</v>
@@ -8945,7 +8946,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>168</v>
@@ -8967,7 +8968,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>252</v>
@@ -8987,7 +8988,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39539</v>
@@ -9014,7 +9015,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>254</v>
@@ -9034,7 +9035,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <f>EDATE(A205,1)</f>
         <v>39569</v>
@@ -9061,7 +9062,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>50</v>
@@ -9083,7 +9084,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>253</v>
@@ -9103,7 +9104,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <f>EDATE(A207,1)</f>
         <v>39600</v>
@@ -9130,7 +9131,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>265</v>
@@ -9150,7 +9151,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <f>EDATE(A210,1)</f>
         <v>39630</v>
@@ -9175,7 +9176,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -9202,7 +9203,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>92</v>
@@ -9224,7 +9225,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>267</v>
@@ -9244,7 +9245,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <f>EDATE(A213,1)</f>
         <v>39692</v>
@@ -9271,7 +9272,7 @@
         <v>39487</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>48</v>
@@ -9291,7 +9292,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>50</v>
@@ -9313,7 +9314,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>268</v>
@@ -9333,7 +9334,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <f>EDATE(A216,1)</f>
         <v>39722</v>
@@ -9360,7 +9361,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>50</v>
@@ -9382,7 +9383,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>269</v>
@@ -9402,7 +9403,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f>EDATE(A220,1)</f>
         <v>39753</v>
@@ -9429,7 +9430,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>50</v>
@@ -9451,7 +9452,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>92</v>
@@ -9473,7 +9474,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>270</v>
@@ -9493,7 +9494,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EDATE(A223,1)</f>
         <v>39783</v>
@@ -9520,7 +9521,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>48</v>
@@ -9540,7 +9541,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>50</v>
@@ -9562,7 +9563,7 @@
         <v>39733</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>271</v>
@@ -9582,7 +9583,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>191</v>
       </c>
@@ -9604,7 +9605,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A227,1)</f>
         <v>39814</v>
@@ -9631,7 +9632,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>283</v>
@@ -9651,7 +9652,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>39845</v>
@@ -9678,7 +9679,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>284</v>
@@ -9698,7 +9699,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>39873</v>
@@ -9723,7 +9724,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9745,7 +9746,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>285</v>
@@ -9765,7 +9766,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <f>EDATE(A236,1)</f>
         <v>39904</v>
@@ -9790,7 +9791,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <f t="shared" ref="A240:A339" si="3">EDATE(A239,1)</f>
         <v>39934</v>
@@ -9817,7 +9818,7 @@
         <v>39999</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>50</v>
@@ -9839,7 +9840,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>187</v>
@@ -9861,7 +9862,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>287</v>
@@ -9881,7 +9882,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f>EDATE(A240,1)</f>
         <v>39965</v>
@@ -9908,7 +9909,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>288</v>
@@ -9928,7 +9929,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>39995</v>
@@ -9953,7 +9954,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f t="shared" si="3"/>
         <v>40026</v>
@@ -9980,7 +9981,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -10002,7 +10003,7 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>175</v>
@@ -10024,7 +10025,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>50</v>
@@ -10046,7 +10047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>290</v>
@@ -10066,7 +10067,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <f>EDATE(A247,1)</f>
         <v>40057</v>
@@ -10093,7 +10094,7 @@
         <v>40095</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>301</v>
@@ -10113,7 +10114,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f>EDATE(A252,1)</f>
         <v>40087</v>
@@ -10138,7 +10139,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>302</v>
@@ -10158,7 +10159,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>40118</v>
@@ -10183,7 +10184,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>50</v>
@@ -10205,7 +10206,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>303</v>
@@ -10225,7 +10226,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f>EDATE(A256,1)</f>
         <v>40148</v>
@@ -10250,7 +10251,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="48" t="s">
         <v>190</v>
       </c>
@@ -10272,7 +10273,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>40179</v>
@@ -10297,7 +10298,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <f t="shared" si="3"/>
         <v>40210</v>
@@ -10324,7 +10325,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>48</v>
@@ -10344,7 +10345,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>308</v>
@@ -10364,7 +10365,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <f>EDATE(A262,1)</f>
         <v>40238</v>
@@ -10391,7 +10392,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>48</v>
@@ -10411,7 +10412,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>50</v>
@@ -10433,7 +10434,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>309</v>
@@ -10453,7 +10454,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A265,1)</f>
         <v>40269</v>
@@ -10480,7 +10481,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>187</v>
@@ -10502,7 +10503,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>307</v>
@@ -10522,7 +10523,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <f>EDATE(A269,1)</f>
         <v>40299</v>
@@ -10549,7 +10550,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>317</v>
@@ -10569,7 +10570,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A272,1)</f>
         <v>40330</v>
@@ -10596,7 +10597,7 @@
         <v>40215</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>318</v>
@@ -10616,7 +10617,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f>EDATE(A274,1)</f>
         <v>40360</v>
@@ -10641,7 +10642,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <f t="shared" si="3"/>
         <v>40391</v>
@@ -10666,7 +10667,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <f t="shared" si="3"/>
         <v>40422</v>
@@ -10693,7 +10694,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>321</v>
@@ -10713,7 +10714,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EDATE(A278,1)</f>
         <v>40452</v>
@@ -10740,7 +10741,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>322</v>
@@ -10760,7 +10761,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>40483</v>
@@ -10787,7 +10788,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>48</v>
@@ -10807,7 +10808,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>50</v>
@@ -10829,7 +10830,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>323</v>
@@ -10849,7 +10850,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f>EDATE(A282,1)</f>
         <v>40513</v>
@@ -10874,7 +10875,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="48" t="s">
         <v>189</v>
       </c>
@@ -10896,7 +10897,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f>EDATE(A286,1)</f>
         <v>40544</v>
@@ -10923,7 +10924,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>330</v>
@@ -10943,7 +10944,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <f>EDATE(A288,1)</f>
         <v>40575</v>
@@ -10970,7 +10971,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>92</v>
@@ -10990,7 +10991,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>333</v>
@@ -11010,7 +11011,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <f>EDATE(A290,1)</f>
         <v>40603</v>
@@ -11037,7 +11038,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>50</v>
@@ -11059,7 +11060,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>334</v>
@@ -11079,7 +11080,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <f>EDATE(A293,1)</f>
         <v>40634</v>
@@ -11106,7 +11107,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>92</v>
@@ -11128,7 +11129,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>335</v>
@@ -11148,7 +11149,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f>EDATE(A296,1)</f>
         <v>40664</v>
@@ -11175,7 +11176,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>50</v>
@@ -11197,7 +11198,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>48</v>
@@ -11217,7 +11218,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>50</v>
@@ -11239,7 +11240,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>336</v>
@@ -11259,7 +11260,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EDATE(A299,1)</f>
         <v>40695</v>
@@ -11284,7 +11285,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -11306,7 +11307,7 @@
         <v>40730</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>337</v>
@@ -11326,7 +11327,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>40725</v>
@@ -11351,7 +11352,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -11376,7 +11377,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -11403,7 +11404,7 @@
         <v>40583</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>187</v>
@@ -11425,7 +11426,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>340</v>
@@ -11445,7 +11446,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>40817</v>
@@ -11472,7 +11473,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>349</v>
@@ -11492,7 +11493,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f>EDATE(A312,1)</f>
         <v>40848</v>
@@ -11519,7 +11520,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>350</v>
@@ -11539,7 +11540,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <f>EDATE(A314,1)</f>
         <v>40878</v>
@@ -11566,7 +11567,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>351</v>
@@ -11586,7 +11587,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>352</v>
@@ -11606,7 +11607,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="48" t="s">
         <v>188</v>
       </c>
@@ -11628,7 +11629,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f>EDATE(A316,1)</f>
         <v>40909</v>
@@ -11655,7 +11656,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -11677,7 +11678,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>362</v>
@@ -11697,7 +11698,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <f>EDATE(A320,1)</f>
         <v>40940</v>
@@ -11724,7 +11725,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>63</v>
@@ -11744,7 +11745,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <f>EDATE(A323,1)</f>
         <v>40969</v>
@@ -11771,7 +11772,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>50</v>
@@ -11793,7 +11794,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>50</v>
@@ -11815,7 +11816,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>363</v>
@@ -11835,7 +11836,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f>EDATE(A325,1)</f>
         <v>41000</v>
@@ -11862,7 +11863,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>364</v>
@@ -11882,7 +11883,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>41030</v>
@@ -11909,7 +11910,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>373</v>
@@ -11929,7 +11930,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f>EDATE(A331,1)</f>
         <v>41061</v>
@@ -11958,7 +11959,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>50</v>
@@ -11980,7 +11981,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>374</v>
@@ -12000,7 +12001,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f>EDATE(A333,1)</f>
         <v>41091</v>
@@ -12025,7 +12026,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -12050,7 +12051,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f t="shared" si="3"/>
         <v>41153</v>
@@ -12075,7 +12076,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f t="shared" si="3"/>
         <v>41183</v>
@@ -12102,7 +12103,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>377</v>
@@ -12122,7 +12123,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>41214</v>
@@ -12149,7 +12150,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>378</v>
@@ -12169,7 +12170,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>233</v>
@@ -12191,7 +12192,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>379</v>
@@ -12211,7 +12212,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <f>EDATE(A341,1)</f>
         <v>41244</v>
@@ -12236,7 +12237,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="48" t="s">
         <v>360</v>
       </c>
@@ -12258,7 +12259,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <f>EDATE(A345,1)</f>
         <v>41275</v>
@@ -12285,7 +12286,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>50</v>
@@ -12307,7 +12308,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>127</v>
@@ -12327,7 +12328,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <f>EDATE(A347,1)</f>
         <v>41306</v>
@@ -12352,7 +12353,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f t="shared" ref="A351:A439" si="4">EDATE(A350,1)</f>
         <v>41334</v>
@@ -12379,7 +12380,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>387</v>
@@ -12399,7 +12400,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>41365</v>
@@ -12424,7 +12425,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <f t="shared" si="4"/>
         <v>41395</v>
@@ -12451,7 +12452,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>391</v>
@@ -12471,7 +12472,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41426</v>
@@ -12496,7 +12497,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <f t="shared" si="4"/>
         <v>41456</v>
@@ -12521,7 +12522,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>50</v>
@@ -12543,7 +12544,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>392</v>
@@ -12563,7 +12564,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f>EDATE(A357,1)</f>
         <v>41487</v>
@@ -12588,7 +12589,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -12613,7 +12614,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f t="shared" si="4"/>
         <v>41548</v>
@@ -12638,7 +12639,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>187</v>
@@ -12660,7 +12661,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>394</v>
@@ -12680,7 +12681,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A362,1)</f>
         <v>41579</v>
@@ -12707,7 +12708,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>168</v>
@@ -12729,7 +12730,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>395</v>
@@ -12749,7 +12750,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f>EDATE(A365,1)</f>
         <v>41609</v>
@@ -12774,7 +12775,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="48" t="s">
         <v>359</v>
       </c>
@@ -12796,7 +12797,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <f>EDATE(A368,1)</f>
         <v>41640</v>
@@ -12821,7 +12822,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <f t="shared" si="4"/>
         <v>41671</v>
@@ -12848,7 +12849,7 @@
         <v>41792</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>92</v>
@@ -12870,7 +12871,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>50</v>
@@ -12892,7 +12893,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>48</v>
@@ -12912,7 +12913,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>307</v>
@@ -12932,7 +12933,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <f>EDATE(A371,1)</f>
         <v>41699</v>
@@ -12957,7 +12958,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>50</v>
@@ -12979,7 +12980,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>405</v>
@@ -12999,7 +13000,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A376,1)</f>
         <v>41730</v>
@@ -13024,7 +13025,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f t="shared" si="4"/>
         <v>41760</v>
@@ -13049,7 +13050,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>168</v>
@@ -13071,7 +13072,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>50</v>
@@ -13093,7 +13094,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>407</v>
@@ -13113,7 +13114,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f>EDATE(A380,1)</f>
         <v>41791</v>
@@ -13138,7 +13139,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -13163,7 +13164,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -13188,7 +13189,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <f t="shared" si="4"/>
         <v>41883</v>
@@ -13213,7 +13214,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f t="shared" si="4"/>
         <v>41913</v>
@@ -13240,7 +13241,7 @@
         <v>41708</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>187</v>
@@ -13262,7 +13263,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>411</v>
@@ -13282,7 +13283,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>41944</v>
@@ -13309,7 +13310,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>317</v>
@@ -13329,7 +13330,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>41974</v>
@@ -13354,7 +13355,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="48" t="s">
         <v>358</v>
       </c>
@@ -13376,7 +13377,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42005</v>
@@ -13403,7 +13404,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>421</v>
@@ -13423,7 +13424,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42036</v>
@@ -13448,7 +13449,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23">
         <f t="shared" si="4"/>
         <v>42064</v>
@@ -13475,7 +13476,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>351</v>
@@ -13495,7 +13496,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>423</v>
@@ -13515,7 +13516,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <f>EDATE(A398,1)</f>
         <v>42095</v>
@@ -13540,7 +13541,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f t="shared" si="4"/>
         <v>42125</v>
@@ -13565,7 +13566,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>424</v>
@@ -13585,7 +13586,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <f>EDATE(A402,1)</f>
         <v>42156</v>
@@ -13612,7 +13613,7 @@
         <v>42314</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>425</v>
@@ -13632,7 +13633,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f>EDATE(A404,1)</f>
         <v>42186</v>
@@ -13659,7 +13660,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>426</v>
@@ -13679,7 +13680,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <f>EDATE(A406,1)</f>
         <v>42217</v>
@@ -13704,7 +13705,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -13731,7 +13732,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>45</v>
@@ -13753,7 +13754,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>427</v>
@@ -13773,7 +13774,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42278</v>
@@ -13800,7 +13801,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>57</v>
@@ -13822,7 +13823,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>435</v>
@@ -13842,7 +13843,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
         <f>EDATE(A412,1)</f>
         <v>42309</v>
@@ -13867,7 +13868,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23">
         <f t="shared" si="4"/>
         <v>42339</v>
@@ -13892,7 +13893,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>357</v>
       </c>
@@ -13914,7 +13915,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f>EDATE(A416,1)</f>
         <v>42370</v>
@@ -13939,7 +13940,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <f t="shared" si="4"/>
         <v>42401</v>
@@ -13964,7 +13965,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23">
         <f t="shared" si="4"/>
         <v>42430</v>
@@ -13991,7 +13992,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>48</v>
@@ -14011,7 +14012,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>405</v>
@@ -14031,7 +14032,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f>EDATE(A420,1)</f>
         <v>42461</v>
@@ -14056,7 +14057,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23">
         <f t="shared" si="4"/>
         <v>42491</v>
@@ -14081,7 +14082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>50</v>
@@ -14103,7 +14104,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>443</v>
@@ -14123,7 +14124,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <f>EDATE(A424,1)</f>
         <v>42522</v>
@@ -14148,7 +14149,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f t="shared" si="4"/>
         <v>42552</v>
@@ -14173,7 +14174,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -14198,7 +14199,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -14225,7 +14226,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>450</v>
@@ -14245,7 +14246,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="55"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>42644</v>
@@ -14272,7 +14273,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>50</v>
@@ -14294,7 +14295,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>57</v>
@@ -14316,7 +14317,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -14336,7 +14337,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>45</v>
@@ -14358,7 +14359,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>451</v>
@@ -14378,7 +14379,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EDATE(A432,1)</f>
         <v>42675</v>
@@ -14403,7 +14404,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -14428,7 +14429,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="48" t="s">
         <v>44</v>
       </c>
@@ -14450,7 +14451,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>42736</v>
       </c>
@@ -14476,7 +14477,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>46</v>
@@ -14496,7 +14497,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="49"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>42767</v>
       </c>
@@ -14520,7 +14521,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42795</v>
       </c>
@@ -14544,7 +14545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>45</v>
@@ -14566,7 +14567,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>50</v>
@@ -14588,7 +14589,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>50</v>
@@ -14610,7 +14611,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>51</v>
@@ -14630,7 +14631,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42826</v>
       </c>
@@ -14656,7 +14657,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>52</v>
@@ -14676,7 +14677,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="49"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>42856</v>
       </c>
@@ -14702,7 +14703,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="15" t="s">
         <v>48</v>
@@ -14722,7 +14723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="15" t="s">
         <v>50</v>
@@ -14744,7 +14745,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="15" t="s">
         <v>53</v>
@@ -14764,7 +14765,7 @@
       <c r="J454" s="12"/>
       <c r="K454" s="15"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42887</v>
       </c>
@@ -14784,7 +14785,7 @@
       <c r="J455" s="12"/>
       <c r="K455" s="15"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>42917</v>
       </c>
@@ -14808,7 +14809,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42948</v>
       </c>
@@ -14834,7 +14835,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>52</v>
@@ -14854,7 +14855,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="49"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42979</v>
       </c>
@@ -14878,7 +14879,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43009</v>
       </c>
@@ -14904,7 +14905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>50</v>
@@ -14926,7 +14927,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>45</v>
@@ -14948,7 +14949,7 @@
         <v>43063</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>59</v>
@@ -14968,7 +14969,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43040</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43070</v>
       </c>
@@ -15012,7 +15013,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="48" t="s">
         <v>61</v>
       </c>
@@ -15030,7 +15031,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43101</v>
       </c>
@@ -15050,7 +15051,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43132</v>
       </c>
@@ -15070,7 +15071,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43160</v>
       </c>
@@ -15090,7 +15091,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43191</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>50</v>
@@ -15136,7 +15137,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43221</v>
       </c>
@@ -15160,7 +15161,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43252</v>
       </c>
@@ -15184,7 +15185,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43282</v>
       </c>
@@ -15204,7 +15205,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43313</v>
       </c>
@@ -15228,7 +15229,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43344</v>
       </c>
@@ -15248,7 +15249,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43374</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>66</v>
@@ -15296,7 +15297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -15316,7 +15317,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>67</v>
@@ -15336,7 +15337,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43405</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>70</v>
@@ -15382,7 +15383,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43435</v>
       </c>
@@ -15406,7 +15407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>50</v>
@@ -15428,7 +15429,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>71</v>
@@ -15448,7 +15449,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="48" t="s">
         <v>74</v>
       </c>
@@ -15466,7 +15467,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>43466</v>
       </c>
@@ -15486,7 +15487,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43497</v>
       </c>
@@ -15506,7 +15507,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43525</v>
       </c>
@@ -15526,7 +15527,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>43556</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43586</v>
       </c>
@@ -15576,7 +15577,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>48</v>
@@ -15596,7 +15597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>66</v>
@@ -15618,7 +15619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>50</v>
@@ -15639,7 +15640,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43617</v>
       </c>
@@ -15659,7 +15660,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43647</v>
       </c>
@@ -15685,7 +15686,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>43678</v>
       </c>
@@ -15711,7 +15712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>50</v>
@@ -15733,7 +15734,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>45</v>
@@ -15755,7 +15756,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43709</v>
       </c>
@@ -15775,7 +15776,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>43739</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43770</v>
       </c>
@@ -15827,7 +15828,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>50</v>
@@ -15849,7 +15850,7 @@
         <v>43798</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43800</v>
       </c>
@@ -15869,7 +15870,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="48" t="s">
         <v>81</v>
       </c>
@@ -15887,7 +15888,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43831</v>
       </c>
@@ -15913,7 +15914,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>82</v>
@@ -15933,7 +15934,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>50</v>
@@ -15955,7 +15956,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>43862</v>
       </c>
@@ -15975,7 +15976,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>43891</v>
       </c>
@@ -16001,7 +16002,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>43922</v>
       </c>
@@ -16021,7 +16022,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>43952</v>
       </c>
@@ -16041,7 +16042,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43983</v>
       </c>
@@ -16061,7 +16062,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>44013</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44044</v>
       </c>
@@ -16105,7 +16106,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44075</v>
       </c>
@@ -16125,7 +16126,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44105</v>
       </c>
@@ -16145,7 +16146,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44136</v>
       </c>
@@ -16165,7 +16166,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44166</v>
       </c>
@@ -16189,7 +16190,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
         <v>86</v>
       </c>
@@ -16207,7 +16208,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>44197</v>
       </c>
@@ -16227,7 +16228,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44228</v>
       </c>
@@ -16247,7 +16248,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44256</v>
       </c>
@@ -16267,7 +16268,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44287</v>
       </c>
@@ -16287,7 +16288,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44317</v>
       </c>
@@ -16307,7 +16308,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44348</v>
       </c>
@@ -16327,7 +16328,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44378</v>
       </c>
@@ -16351,7 +16352,7 @@
         <v>44499</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44409</v>
       </c>
@@ -16371,7 +16372,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44440</v>
       </c>
@@ -16391,7 +16392,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44470</v>
       </c>
@@ -16417,7 +16418,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>57</v>
@@ -16439,7 +16440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>48</v>
@@ -16459,7 +16460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44501</v>
       </c>
@@ -16479,7 +16480,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44531</v>
       </c>
@@ -16505,7 +16506,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="48" t="s">
         <v>90</v>
       </c>
@@ -16523,7 +16524,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44562</v>
       </c>
@@ -16549,7 +16550,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44593</v>
       </c>
@@ -16569,7 +16570,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44621</v>
       </c>
@@ -16589,7 +16590,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44652</v>
       </c>
@@ -16613,7 +16614,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44682</v>
       </c>
@@ -16637,7 +16638,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44713</v>
       </c>
@@ -16661,7 +16662,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44743</v>
       </c>
@@ -16687,7 +16688,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16707,7 +16708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>469</v>
@@ -16727,7 +16728,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="49"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44774</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>468</v>
@@ -16773,7 +16774,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44805</v>
       </c>
@@ -16797,7 +16798,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>44835</v>
       </c>
@@ -16823,7 +16824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>50</v>
@@ -16845,7 +16846,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>48</v>
@@ -16865,7 +16866,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>48</v>
@@ -16885,7 +16886,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>50</v>
@@ -16907,7 +16908,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>466</v>
@@ -16927,7 +16928,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="49"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>44866</v>
       </c>
@@ -16953,7 +16954,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>92</v>
@@ -16975,7 +16976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>57</v>
@@ -16997,7 +16998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>50</v>
@@ -17019,7 +17020,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>50</v>
@@ -17041,7 +17042,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>53</v>
@@ -17061,7 +17062,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="49"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44896</v>
       </c>
@@ -17087,7 +17088,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>100</v>
@@ -17109,7 +17110,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>104</v>
@@ -17131,7 +17132,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>129</v>
@@ -17151,7 +17152,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="48" t="s">
         <v>95</v>
       </c>
@@ -17169,7 +17170,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>44927</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>489</v>
@@ -17217,7 +17218,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>350</v>
@@ -17237,7 +17238,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>44958</v>
       </c>
@@ -17263,7 +17264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>50</v>
@@ -17285,7 +17286,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>111</v>
@@ -17307,7 +17308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>488</v>
@@ -17327,7 +17328,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="49"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>44986</v>
       </c>
@@ -17353,7 +17354,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>109</v>
@@ -17375,7 +17376,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45017</v>
       </c>
@@ -17401,7 +17402,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>486</v>
@@ -17423,7 +17424,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>45047</v>
       </c>
@@ -17449,7 +17450,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>92</v>
@@ -17471,7 +17472,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>351</v>
@@ -17491,7 +17492,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>485</v>
@@ -17511,7 +17512,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>45078</v>
       </c>
@@ -17537,7 +17538,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>50</v>
@@ -17559,7 +17560,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>483</v>
@@ -17581,7 +17582,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>466</v>
@@ -17601,7 +17602,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="49"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>45108</v>
       </c>
@@ -17625,7 +17626,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>45139</v>
       </c>
@@ -17651,7 +17652,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>45170</v>
       </c>
@@ -17671,7 +17672,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>45200</v>
       </c>
@@ -17697,7 +17698,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>48</v>
@@ -17717,7 +17718,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>233</v>
@@ -17739,7 +17740,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>50</v>
@@ -17761,7 +17762,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>482</v>
@@ -17781,7 +17782,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="49"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>45231</v>
       </c>
@@ -17807,7 +17808,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20" t="s">
         <v>168</v>
@@ -17829,7 +17830,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>50</v>
@@ -17851,7 +17852,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>481</v>
@@ -17871,7 +17872,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="49"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>45261</v>
       </c>
@@ -17897,7 +17898,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>50</v>
@@ -17919,7 +17920,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20" t="s">
         <v>104</v>
@@ -17941,7 +17942,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="48" t="s">
         <v>478</v>
       </c>
@@ -17959,20 +17960,22 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>45322</v>
       </c>
       <c r="B600" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C600" s="13"/>
+      <c r="C600" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D600" s="39"/>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G600" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H600" s="39">
         <v>1</v>
@@ -17983,7 +17986,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>50</v>
@@ -18005,11 +18008,11 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B602" s="20"/>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A602" s="40"/>
+      <c r="B602" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C602" s="13"/>
       <c r="D602" s="39"/>
       <c r="E602" s="9"/>
@@ -18018,14 +18021,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H602" s="39"/>
+      <c r="H602" s="39">
+        <v>1</v>
+      </c>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="20"/>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K602" s="49">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -18041,9 +18048,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -18059,9 +18066,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -18077,9 +18084,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -18095,9 +18102,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -18113,9 +18120,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -18131,9 +18138,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -18149,9 +18156,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -18167,9 +18174,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -18185,9 +18192,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -18203,9 +18210,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -18221,9 +18228,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -18239,9 +18246,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -18257,9 +18264,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -18275,9 +18282,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -18293,9 +18300,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -18311,9 +18318,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -18329,9 +18336,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -18347,9 +18354,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -18365,9 +18372,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -18383,9 +18390,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -18401,9 +18408,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -18419,9 +18426,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -18437,9 +18444,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -18455,9 +18462,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -18473,9 +18480,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -18491,8 +18498,10 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40"/>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A629" s="40">
+        <v>46142</v>
+      </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -18507,7 +18516,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -18523,7 +18532,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -18539,7 +18548,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -18555,7 +18564,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -18571,7 +18580,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -18587,7 +18596,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -18603,21 +18612,37 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="41"/>
-      <c r="B636" s="15"/>
-      <c r="C636" s="42"/>
-      <c r="D636" s="43"/>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A636" s="40"/>
+      <c r="B636" s="20"/>
+      <c r="C636" s="13"/>
+      <c r="D636" s="39"/>
       <c r="E636" s="9"/>
-      <c r="F636" s="15"/>
-      <c r="G636" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H636" s="43"/>
+      <c r="F636" s="20"/>
+      <c r="G636" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="39"/>
       <c r="I636" s="9"/>
-      <c r="J636" s="12"/>
-      <c r="K636" s="15"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="20"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A637" s="41"/>
+      <c r="B637" s="15"/>
+      <c r="C637" s="42"/>
+      <c r="D637" s="43"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="15"/>
+      <c r="G637" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="43"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="12"/>
+      <c r="K637" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18634,10 +18659,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18660,7 +18685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18668,21 +18693,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -18695,7 +18720,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18724,7 +18749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -18746,17 +18771,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18777,7 +18802,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18804,7 +18829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18830,7 +18855,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18856,7 +18881,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18882,7 +18907,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18908,7 +18933,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18934,7 +18959,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18960,7 +18985,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18986,7 +19011,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19006,7 +19031,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19026,7 +19051,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19046,7 +19071,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19067,7 +19092,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19088,7 +19113,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19109,7 +19134,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19130,7 +19155,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19151,7 +19176,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19172,7 +19197,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19193,7 +19218,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19214,7 +19239,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19235,7 +19260,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19256,7 +19281,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19277,7 +19302,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19298,7 +19323,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19319,7 +19344,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19340,7 +19365,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19361,7 +19386,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19382,7 +19407,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19403,7 +19428,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19424,7 +19449,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19445,7 +19470,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19466,7 +19491,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19475,7 +19500,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19484,7 +19509,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19493,7 +19518,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19502,7 +19527,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19511,7 +19536,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19520,7 +19545,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19529,7 +19554,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19538,7 +19563,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19547,7 +19572,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19556,7 +19581,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19565,7 +19590,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19574,7 +19599,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19583,7 +19608,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19592,7 +19617,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19601,7 +19626,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19610,7 +19635,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19619,7 +19644,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19628,7 +19653,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19637,7 +19662,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19646,7 +19671,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19655,7 +19680,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19664,7 +19689,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19673,7 +19698,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19682,7 +19707,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19691,7 +19716,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19700,7 +19725,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19709,7 +19734,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19718,7 +19743,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19727,7 +19752,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
+++ b/REGULAR/ACCOUNTING/DIMARANAN, GREGORIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B17CD2-6797-47BE-B5BA-1656B0A8AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43AF56B-5A7E-4BC4-AD6A-93034487F3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="492">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1508,6 +1508,9 @@
   </si>
   <si>
     <t>1/3-6/2023</t>
+  </si>
+  <si>
+    <t>2/7,8/2024</t>
   </si>
 </sst>
 </file>
@@ -3926,8 +3929,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K637" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K637" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K638" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K638" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4305,12 +4308,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K637"/>
+  <dimension ref="A2:K638"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A596" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A593" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="B603" sqref="B603"/>
+      <selection pane="bottomLeft" activeCell="B604" sqref="B604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4481,7 +4484,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>13.375</v>
+        <v>11.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18031,10 +18034,10 @@
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A603" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B603" s="20"/>
+      <c r="A603" s="40"/>
+      <c r="B603" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C603" s="13"/>
       <c r="D603" s="39"/>
       <c r="E603" s="9"/>
@@ -18043,14 +18046,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H603" s="39"/>
+      <c r="H603" s="39">
+        <v>2</v>
+      </c>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20"/>
+      <c r="K603" s="49" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -18068,7 +18075,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -18086,7 +18093,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -18104,7 +18111,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -18122,7 +18129,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -18140,7 +18147,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -18158,7 +18165,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -18176,7 +18183,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -18194,7 +18201,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -18212,7 +18219,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -18230,7 +18237,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -18248,7 +18255,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -18266,7 +18273,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -18284,7 +18291,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -18302,7 +18309,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -18320,7 +18327,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -18338,7 +18345,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -18356,7 +18363,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -18374,7 +18381,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -18392,7 +18399,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -18410,7 +18417,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -18428,7 +18435,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -18446,7 +18453,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -18464,7 +18471,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -18482,7 +18489,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -18500,7 +18507,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -18517,7 +18524,9 @@
       <c r="K629" s="20"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A630" s="40"/>
+      <c r="A630" s="40">
+        <v>46142</v>
+      </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
       <c r="D630" s="39"/>
@@ -18629,20 +18638,36 @@
       <c r="K636" s="20"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A637" s="41"/>
-      <c r="B637" s="15"/>
-      <c r="C637" s="42"/>
-      <c r="D637" s="43"/>
+      <c r="A637" s="40"/>
+      <c r="B637" s="20"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="39"/>
       <c r="E637" s="9"/>
-      <c r="F637" s="15"/>
-      <c r="G637" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H637" s="43"/>
+      <c r="F637" s="20"/>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="39"/>
       <c r="I637" s="9"/>
-      <c r="J637" s="12"/>
-      <c r="K637" s="15"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="20"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A638" s="41"/>
+      <c r="B638" s="15"/>
+      <c r="C638" s="42"/>
+      <c r="D638" s="43"/>
+      <c r="E638" s="9"/>
+      <c r="F638" s="15"/>
+      <c r="G638" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="43"/>
+      <c r="I638" s="9"/>
+      <c r="J638" s="12"/>
+      <c r="K638" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
